--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="234">
   <si>
     <t xml:space="preserve">usuario_id</t>
   </si>
@@ -387,6 +387,50 @@
   </si>
   <si>
     <t xml:space="preserve">plano_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">historico</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_id</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">álbuns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">musicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">historico_reproducao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artista_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">musica_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duracao</t>
   </si>
   <si>
     <r>
@@ -412,283 +456,262 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">álbuns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">musicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">historico_reproducao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artista_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">musica_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duracao</t>
-  </si>
-  <si>
     <t xml:space="preserve">'Soul For Us'</t>
   </si>
   <si>
+    <t xml:space="preserve">'Reflections Of Magic'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Dance With Her Own'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Troubles Of My Inner Fire'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Time Fireworks'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Circus'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Honey, So Do I'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Sweetie, Let's Go Wild'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'She Knows'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantasy For Me'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Celebration Of More'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artistas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Rock His Everything'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Home Forever'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Diamond Power'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Let's Be Silly'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thang Of Thunder'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Words Of Her Life'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Without My Streets'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need Of The Evening'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'History Of My Roses'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Without My Love'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Walking And Game'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Young And Father'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding My Traditions'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Walking And Man'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Hard And Time'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Honey, I'm A Lone Wolf'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She Thinks I Won't Stay Tonight'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'He Heard You're Bad For Me'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'He Hopes We Can't Stay'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'I Know I Know'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He's Walking Away'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'He's Trouble'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'I Heard I Want To Bo Alone'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'I Ride Alone'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honey'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'You Cheated On Me'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Wouldn't It Be Nice'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Baby'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'You Make Me Feel So..'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honey"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking And Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Young And Father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamond Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's Be Silly</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-02-28 10:45:55"</t>
   </si>
   <si>
-    <t xml:space="preserve">'Reflections Of Magic'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Dance With Her Own'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Troubles Of My Inner Fire'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Time Fireworks'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Circus'</t>
+    <t xml:space="preserve">I Heard I Want To Bo Alone"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding My Traditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without My Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baby</t>
   </si>
   <si>
     <t xml:space="preserve">2020-01-02 07:40:33"</t>
   </si>
   <si>
-    <t xml:space="preserve">'Honey, So Do I'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Sweetie, Let's Go Wild'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'She Knows'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantasy For Me'</t>
+    <t xml:space="preserve">Magic Circus"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dance With Her Own</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard And Time</t>
   </si>
   <si>
     <t xml:space="preserve">2020-11-13 16:55:13"</t>
   </si>
   <si>
-    <t xml:space="preserve">'Celebration Of More'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artistas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Rock His Everything'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Home Forever'</t>
+    <t xml:space="preserve">Reflections Of Magic"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Ride Alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honey, I'm A Lone Wolf</t>
   </si>
   <si>
     <t xml:space="preserve">2021-08-15 17:10:10"</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'Diamond Power'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Let's Be Silly'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thang Of Thunder'</t>
+    <t xml:space="preserve">Honey, So Do I"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock His Everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soul For Us</t>
   </si>
   <si>
     <t xml:space="preserve">2020-07-03 19:33:28"</t>
   </si>
   <si>
-    <t xml:space="preserve">'Words Of Her Life'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Without My Streets'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need Of The Evening'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'History Of My Roses'</t>
+    <t xml:space="preserve">Wouldn't It Be Nice"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He Heard You're Bad For Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He Hopes We Can't Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking And Game</t>
   </si>
   <si>
     <t xml:space="preserve">2019-02-07 20:33:48"</t>
   </si>
   <si>
-    <t xml:space="preserve">'Without My Love'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Walking And Game'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Young And Father'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding My Traditions'</t>
+    <t xml:space="preserve">Time Fireworks"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troubles Of My Inner Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celebration Of More</t>
   </si>
   <si>
     <t xml:space="preserve">2018-05-09 22:30:49"</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'Walking And Man'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Hard And Time'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Honey, I'm A Lone Wolf'</t>
+    <t xml:space="preserve">Baby"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Make Me Feel So..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He"s Walking Away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He"s Trouble</t>
   </si>
   <si>
     <t xml:space="preserve">2018-03-21 16:56:40"</t>
   </si>
   <si>
-    <t xml:space="preserve">She Thinks I Won't Stay Tonight'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'He Heard You're Bad For Me'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'He Hopes We Can't Stay'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'I Know I Know'</t>
+    <t xml:space="preserve">Thang Of Thunder"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Words Of Her Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweetie, Let's Go Wild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She Knows</t>
   </si>
   <si>
     <t xml:space="preserve">2021-05-24 17:23:45"</t>
   </si>
   <si>
-    <t xml:space="preserve">He's Walking Away'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'He's Trouble'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'I Heard I Want To Bo Alone'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'I Ride Alone'</t>
+    <t xml:space="preserve">History Of My Roses"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Forever</t>
   </si>
   <si>
     <t xml:space="preserve">2017-02-06 08:21:34"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honey'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'You Cheated On Me'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Wouldn't It Be Nice'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'Baby'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'You Make Me Feel So..'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honey"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walking And Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Young And Father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diamond Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let's Be Silly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I Heard I Want To Bo Alone"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding My Traditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Without My Love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Circus"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dance With Her Own</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hard And Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reflections Of Magic"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I Ride Alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honey, I'm A Lone Wolf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honey, So Do I"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock His Everything</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soul For Us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wouldn't It Be Nice"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He Heard You're Bad For Me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He Hopes We Can't Stay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walking And Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Fireworks"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troubles Of My Inner Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celebration Of More</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baby"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You Make Me Feel So..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He"s Walking Away</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He"s Trouble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thang Of Thunder"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Words Of Her Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweetie, Let's Go Wild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She Knows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">History Of My Roses"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home Forever</t>
   </si>
   <si>
     <t xml:space="preserve">Honey</t>
@@ -970,7 +993,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1018,7 +1041,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFE91E63"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FFC9211E"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FFFAFAFA"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFAFAFA"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1031,29 +1090,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FFFAFAFA"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFAFAFA"/>
+      <color rgb="FFE91E63"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1081,7 +1119,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE91E63"/>
-        <bgColor rgb="FFFF4081"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
@@ -1105,7 +1143,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF30C0C"/>
-        <bgColor rgb="FFE91E63"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
     <fill>
@@ -1116,8 +1154,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF3E0"/>
-        <bgColor rgb="FFFAFAFA"/>
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor rgb="FFFFF3E0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1134,8 +1172,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAFAFA"/>
-        <bgColor rgb="FFFFF3E0"/>
+        <fgColor rgb="FFFFF3E0"/>
+        <bgColor rgb="FFFAFAFA"/>
       </patternFill>
     </fill>
   </fills>
@@ -1187,7 +1225,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1288,28 +1326,40 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1320,7 +1370,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1344,11 +1394,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1360,11 +1414,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1372,15 +1430,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1392,35 +1446,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1456,15 +1502,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1476,15 +1530,19 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1555,7 +1613,7 @@
       <rgbColor rgb="FF4CAF50"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF3F51B5"/>
       <rgbColor rgb="FF212121"/>
@@ -8969,8 +9027,8 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="32.55" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9037,32 +9095,32 @@
       <c r="AF1" s="6"/>
     </row>
     <row r="2" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>121</v>
       </c>
       <c r="G2" s="12"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="26" t="s">
         <v>122</v>
       </c>
       <c r="K2" s="12"/>
@@ -9088,32 +9146,32 @@
       <c r="AF2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="n">
+      <c r="A3" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="27" t="n">
         <v>23</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="22" t="n">
+      <c r="F3" s="30" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="27" t="n">
+      <c r="H3" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="32" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="12"/>
@@ -9139,32 +9197,32 @@
       <c r="AF3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="n">
+      <c r="A4" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="27" t="n">
         <v>35</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="22" t="n">
+      <c r="F4" s="30" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="27" t="n">
+      <c r="H4" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="32" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="12"/>
@@ -9190,32 +9248,32 @@
       <c r="AF4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="n">
+      <c r="A5" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="27" t="n">
         <v>20</v>
       </c>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="22" t="n">
+      <c r="F5" s="30" t="n">
         <v>3</v>
       </c>
       <c r="G5" s="12"/>
-      <c r="H5" s="27" t="n">
+      <c r="H5" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="32" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="12"/>
@@ -9241,32 +9299,32 @@
       <c r="AF5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="n">
+      <c r="A6" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="27" t="n">
         <v>45</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="22" t="n">
+      <c r="F6" s="30" t="n">
         <v>4</v>
       </c>
       <c r="G6" s="12"/>
-      <c r="H6" s="27" t="n">
+      <c r="H6" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="32" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="12"/>
@@ -9292,34 +9350,28 @@
       <c r="AF6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="n">
+      <c r="A7" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="29" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="22" t="n">
+      <c r="F7" s="30" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>34</v>
-      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -9343,34 +9395,28 @@
       <c r="AF7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="n">
+      <c r="A8" s="27" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="27" t="n">
         <v>33</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="22" t="n">
+      <c r="F8" s="30" t="n">
         <v>6</v>
       </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
@@ -9394,34 +9440,28 @@
       <c r="AF8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="n">
+      <c r="A9" s="27" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="27" t="n">
         <v>26</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="22" t="n">
+      <c r="F9" s="30" t="n">
         <v>7</v>
       </c>
       <c r="G9" s="12"/>
-      <c r="H9" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>27</v>
-      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
@@ -9445,34 +9485,28 @@
       <c r="AF9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="n">
+      <c r="A10" s="27" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="27" t="n">
         <v>19</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="22" t="n">
+      <c r="F10" s="30" t="n">
         <v>8</v>
       </c>
       <c r="G10" s="12"/>
-      <c r="H10" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>27</v>
-      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -9496,34 +9530,28 @@
       <c r="AF10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="n">
+      <c r="A11" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="27" t="n">
         <v>42</v>
       </c>
-      <c r="D11" s="27" t="n">
+      <c r="D11" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="22" t="n">
+      <c r="F11" s="30" t="n">
         <v>9</v>
       </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -9547,34 +9575,28 @@
       <c r="AF11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="n">
+      <c r="A12" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="27" t="n">
         <v>46</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="22" t="n">
+      <c r="F12" s="30" t="n">
         <v>10</v>
       </c>
       <c r="G12" s="12"/>
-      <c r="H12" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
@@ -9631,33 +9653,33 @@
       <c r="AF13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="12" t="s">
         <v>117</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N14" s="33" t="s">
+      <c r="N14" s="12"/>
+      <c r="O14" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
       <c r="R14" s="12" t="s">
         <v>117</v>
       </c>
@@ -9675,51 +9697,51 @@
       <c r="AD14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="39" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="41" t="s">
         <v>128</v>
       </c>
       <c r="M15" s="12"/>
-      <c r="N15" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="23" t="s">
+      <c r="N15" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="37" t="s">
+      <c r="Q15" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="Q15" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -9728,48 +9750,48 @@
       <c r="Y15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="n">
+      <c r="A16" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="45" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="46" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="43" t="n">
+      <c r="H16" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="J16" s="43" t="n">
+      <c r="I16" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="K16" s="43" t="n">
+      <c r="K16" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="43" t="n">
+      <c r="L16" s="32" t="n">
         <v>200</v>
       </c>
       <c r="M16" s="12"/>
-      <c r="N16" s="22" t="n">
+      <c r="N16" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="O16" s="45" t="n">
+      <c r="O16" s="49" t="n">
+        <v>43889.4485532407</v>
+      </c>
+      <c r="P16" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="P16" s="43" t="n">
+      <c r="Q16" s="32" t="n">
         <v>36</v>
-      </c>
-      <c r="Q16" s="46" t="s">
-        <v>130</v>
       </c>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
@@ -9781,48 +9803,48 @@
       <c r="Y16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="n">
+      <c r="A17" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="45" t="s">
         <v>77</v>
       </c>
       <c r="C17" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="46" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="43" t="n">
+      <c r="H17" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="I17" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="J17" s="43" t="n">
+      <c r="J17" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="K17" s="43" t="n">
+      <c r="K17" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="43" t="n">
+      <c r="L17" s="32" t="n">
         <v>163</v>
       </c>
       <c r="M17" s="12"/>
-      <c r="N17" s="22" t="n">
+      <c r="N17" s="48" t="n">
         <v>2</v>
       </c>
-      <c r="O17" s="45" t="n">
+      <c r="O17" s="51" t="n">
+        <v>43953.2295717593</v>
+      </c>
+      <c r="P17" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="P17" s="43" t="n">
+      <c r="Q17" s="32" t="n">
         <v>25</v>
-      </c>
-      <c r="Q17" s="47" t="n">
-        <v>43953.2295717593</v>
       </c>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
@@ -9834,48 +9856,48 @@
       <c r="Y17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="n">
+      <c r="A18" s="44" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="45" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="46" t="s">
         <v>85</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="43" t="n">
+      <c r="H18" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="I18" s="43" t="s">
+      <c r="I18" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="J18" s="43" t="n">
+      <c r="J18" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="K18" s="43" t="n">
+      <c r="K18" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="L18" s="43" t="n">
+      <c r="L18" s="32" t="n">
         <v>116</v>
       </c>
       <c r="M18" s="12"/>
-      <c r="N18" s="22" t="n">
+      <c r="N18" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="O18" s="45" t="n">
+      <c r="O18" s="51" t="n">
+        <v>43896.4739930556</v>
+      </c>
+      <c r="P18" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="P18" s="43" t="n">
+      <c r="Q18" s="32" t="n">
         <v>23</v>
-      </c>
-      <c r="Q18" s="47" t="n">
-        <v>43896.4739930556</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
@@ -9887,48 +9909,48 @@
       <c r="Y18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="n">
+      <c r="A19" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="45" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="46" t="s">
         <v>90</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="43" t="n">
+      <c r="H19" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="J19" s="43" t="n">
+      <c r="J19" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="K19" s="43" t="n">
+      <c r="K19" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="43" t="n">
+      <c r="L19" s="32" t="n">
         <v>203</v>
       </c>
       <c r="M19" s="12"/>
-      <c r="N19" s="22" t="n">
+      <c r="N19" s="48" t="n">
         <v>4</v>
       </c>
-      <c r="O19" s="45" t="n">
+      <c r="O19" s="51" t="n">
+        <v>44048.3370023148</v>
+      </c>
+      <c r="P19" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="P19" s="43" t="n">
+      <c r="Q19" s="32" t="n">
         <v>14</v>
-      </c>
-      <c r="Q19" s="47" t="n">
-        <v>44048.3370023148</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
@@ -9940,48 +9962,48 @@
       <c r="Y19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="n">
+      <c r="A20" s="44" t="n">
         <v>5</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="45" t="s">
         <v>91</v>
       </c>
       <c r="C20" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="46" t="s">
         <v>94</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="43" t="n">
+      <c r="H20" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="J20" s="43" t="n">
+      <c r="J20" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="K20" s="43" t="n">
+      <c r="K20" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="L20" s="43" t="n">
+      <c r="L20" s="32" t="n">
         <v>152</v>
       </c>
       <c r="M20" s="12"/>
-      <c r="N20" s="22" t="n">
+      <c r="N20" s="48" t="n">
         <v>5</v>
       </c>
-      <c r="O20" s="45" t="n">
+      <c r="O20" s="51" t="n">
+        <v>44088.6891435185</v>
+      </c>
+      <c r="P20" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="P20" s="43" t="n">
+      <c r="Q20" s="32" t="n">
         <v>15</v>
-      </c>
-      <c r="Q20" s="47" t="n">
-        <v>44088.6891435185</v>
       </c>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
@@ -9993,48 +10015,48 @@
       <c r="Y20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="n">
+      <c r="A21" s="44" t="n">
         <v>6</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="44" t="s">
         <v>95</v>
       </c>
       <c r="C21" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="45" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="43" t="n">
+      <c r="H21" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="J21" s="43" t="n">
+      <c r="J21" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="K21" s="43" t="n">
+      <c r="K21" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="43" t="n">
+      <c r="L21" s="32" t="n">
         <v>105</v>
       </c>
       <c r="M21" s="12"/>
-      <c r="N21" s="22" t="n">
+      <c r="N21" s="48" t="n">
         <v>6</v>
       </c>
-      <c r="O21" s="45" t="n">
+      <c r="O21" s="49" t="n">
+        <v>43832.3198263889</v>
+      </c>
+      <c r="P21" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="P21" s="43" t="n">
+      <c r="Q21" s="32" t="n">
         <v>34</v>
-      </c>
-      <c r="Q21" s="46" t="s">
-        <v>136</v>
       </c>
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
@@ -10046,48 +10068,48 @@
       <c r="Y21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="n">
+      <c r="A22" s="44" t="n">
         <v>7</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="44" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="45" t="s">
         <v>103</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="43" t="n">
+      <c r="H22" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="I22" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="J22" s="43" t="n">
+      <c r="I22" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J22" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="K22" s="43" t="n">
+      <c r="K22" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="L22" s="43" t="n">
+      <c r="L22" s="32" t="n">
         <v>207</v>
       </c>
       <c r="M22" s="12"/>
-      <c r="N22" s="22" t="n">
+      <c r="N22" s="48" t="n">
         <v>7</v>
       </c>
-      <c r="O22" s="45" t="n">
+      <c r="O22" s="51" t="n">
+        <v>43967.2613657407</v>
+      </c>
+      <c r="P22" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="P22" s="43" t="n">
+      <c r="Q22" s="32" t="n">
         <v>24</v>
-      </c>
-      <c r="Q22" s="47" t="n">
-        <v>43967.2613657407</v>
       </c>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
@@ -10099,48 +10121,48 @@
       <c r="Y22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26" t="n">
+      <c r="A23" s="44" t="n">
         <v>8</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="44" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="45" t="s">
         <v>107</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="43" t="n">
+      <c r="H23" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="I23" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23" s="43" t="n">
+      <c r="I23" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="J23" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="K23" s="43" t="n">
+      <c r="K23" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="L23" s="43" t="n">
+      <c r="L23" s="32" t="n">
         <v>139</v>
       </c>
       <c r="M23" s="12"/>
-      <c r="N23" s="22" t="n">
+      <c r="N23" s="48" t="n">
         <v>8</v>
       </c>
-      <c r="O23" s="45" t="n">
+      <c r="O23" s="51" t="n">
+        <v>44113.5193055556</v>
+      </c>
+      <c r="P23" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="P23" s="43" t="n">
+      <c r="Q23" s="32" t="n">
         <v>21</v>
-      </c>
-      <c r="Q23" s="47" t="n">
-        <v>44113.5193055556</v>
       </c>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
@@ -10152,48 +10174,48 @@
       <c r="Y23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="n">
+      <c r="A24" s="44" t="n">
         <v>9</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="44" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="43" t="n">
+      <c r="H24" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="I24" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="J24" s="43" t="n">
+      <c r="I24" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="K24" s="43" t="n">
+      <c r="K24" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="L24" s="43" t="n">
+      <c r="L24" s="32" t="n">
         <v>244</v>
       </c>
       <c r="M24" s="12"/>
-      <c r="N24" s="22" t="n">
+      <c r="N24" s="48" t="n">
         <v>9</v>
       </c>
-      <c r="O24" s="45" t="n">
+      <c r="O24" s="51" t="n">
+        <v>44095.5519212963</v>
+      </c>
+      <c r="P24" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="P24" s="43" t="n">
+      <c r="Q24" s="32" t="n">
         <v>39</v>
-      </c>
-      <c r="Q24" s="47" t="n">
-        <v>44095.5519212963</v>
       </c>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
@@ -10205,48 +10227,48 @@
       <c r="Y24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="n">
+      <c r="A25" s="44" t="n">
         <v>10</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="44" t="s">
         <v>112</v>
       </c>
       <c r="C25" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="45" t="s">
         <v>111</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="43" t="n">
+      <c r="H25" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="I25" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="J25" s="43" t="n">
+      <c r="I25" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="K25" s="43" t="n">
+      <c r="K25" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="L25" s="43" t="n">
+      <c r="L25" s="32" t="n">
         <v>100</v>
       </c>
       <c r="M25" s="12"/>
-      <c r="N25" s="22" t="n">
+      <c r="N25" s="48" t="n">
         <v>10</v>
       </c>
-      <c r="O25" s="45" t="n">
+      <c r="O25" s="49" t="n">
+        <v>44148.7050115741</v>
+      </c>
+      <c r="P25" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="P25" s="43" t="n">
+      <c r="Q25" s="32" t="n">
         <v>6</v>
-      </c>
-      <c r="Q25" s="46" t="s">
-        <v>141</v>
       </c>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
@@ -10265,33 +10287,33 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="43" t="n">
+      <c r="H26" s="32" t="n">
         <v>11</v>
       </c>
-      <c r="I26" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="J26" s="43" t="n">
+      <c r="I26" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="K26" s="43" t="n">
+      <c r="K26" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="L26" s="43" t="n">
+      <c r="L26" s="32" t="n">
         <v>146</v>
       </c>
       <c r="M26" s="12"/>
-      <c r="N26" s="22" t="n">
+      <c r="N26" s="48" t="n">
         <v>11</v>
       </c>
-      <c r="O26" s="45" t="n">
+      <c r="O26" s="51" t="n">
+        <v>44170.7767361111</v>
+      </c>
+      <c r="P26" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="P26" s="43" t="n">
+      <c r="Q26" s="32" t="n">
         <v>3</v>
-      </c>
-      <c r="Q26" s="47" t="n">
-        <v>44170.7767361111</v>
       </c>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
@@ -10303,48 +10325,48 @@
       <c r="Y26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="48"/>
+      <c r="A27" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="52"/>
       <c r="C27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="43" t="n">
+      <c r="H27" s="32" t="n">
         <v>12</v>
       </c>
-      <c r="I27" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="J27" s="43" t="n">
+      <c r="I27" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="K27" s="43" t="n">
+      <c r="K27" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="L27" s="43" t="n">
+      <c r="L27" s="32" t="n">
         <v>223</v>
       </c>
       <c r="M27" s="12"/>
-      <c r="N27" s="22" t="n">
+      <c r="N27" s="48" t="n">
         <v>12</v>
       </c>
-      <c r="O27" s="45" t="n">
+      <c r="O27" s="51" t="n">
+        <v>44042.4166666667</v>
+      </c>
+      <c r="P27" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="P27" s="43" t="n">
+      <c r="Q27" s="32" t="n">
         <v>26</v>
-      </c>
-      <c r="Q27" s="47" t="n">
-        <v>44042.4166666667</v>
       </c>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
@@ -10361,50 +10383,50 @@
       <c r="AD27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="32.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="38" t="s">
         <v>119</v>
       </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="F28" s="51" t="s">
+      <c r="F28" s="55" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="12"/>
-      <c r="H28" s="43" t="n">
+      <c r="H28" s="32" t="n">
         <v>13</v>
       </c>
-      <c r="I28" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="J28" s="43" t="n">
+      <c r="I28" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="K28" s="43" t="n">
+      <c r="K28" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="L28" s="43" t="n">
+      <c r="L28" s="32" t="n">
         <v>231</v>
       </c>
       <c r="M28" s="12"/>
-      <c r="N28" s="22" t="n">
+      <c r="N28" s="48" t="n">
         <v>13</v>
       </c>
-      <c r="O28" s="45" t="n">
+      <c r="O28" s="49" t="n">
+        <v>44423.7153935185</v>
+      </c>
+      <c r="P28" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="P28" s="43" t="n">
+      <c r="Q28" s="32" t="n">
         <v>2</v>
-      </c>
-      <c r="Q28" s="46" t="s">
-        <v>146</v>
       </c>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
@@ -10424,47 +10446,47 @@
       <c r="A29" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="45" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="12"/>
-      <c r="D29" s="52" t="n">
+      <c r="D29" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="52" t="n">
+      <c r="E29" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="57" t="s">
         <v>73</v>
       </c>
       <c r="G29" s="12"/>
-      <c r="H29" s="43" t="n">
+      <c r="H29" s="32" t="n">
         <v>14</v>
       </c>
-      <c r="I29" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="J29" s="43" t="n">
+      <c r="I29" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="J29" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="K29" s="43" t="n">
+      <c r="K29" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="L29" s="43" t="n">
+      <c r="L29" s="32" t="n">
         <v>241</v>
       </c>
       <c r="M29" s="12"/>
-      <c r="N29" s="22" t="n">
+      <c r="N29" s="48" t="n">
         <v>14</v>
       </c>
-      <c r="O29" s="45" t="n">
+      <c r="O29" s="51" t="n">
+        <v>44387.6392361111</v>
+      </c>
+      <c r="P29" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="P29" s="43" t="n">
+      <c r="Q29" s="32" t="n">
         <v>35</v>
-      </c>
-      <c r="Q29" s="47" t="n">
-        <v>44387.6392361111</v>
       </c>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
@@ -10484,47 +10506,47 @@
       <c r="A30" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="45" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="12"/>
-      <c r="D30" s="52" t="n">
+      <c r="D30" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="52" t="n">
+      <c r="E30" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="57" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="12"/>
-      <c r="H30" s="43" t="n">
+      <c r="H30" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="I30" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="J30" s="43" t="n">
+      <c r="I30" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="J30" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="K30" s="43" t="n">
+      <c r="K30" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="L30" s="43" t="n">
+      <c r="L30" s="32" t="n">
         <v>132</v>
       </c>
       <c r="M30" s="12"/>
-      <c r="N30" s="22" t="n">
+      <c r="N30" s="48" t="n">
         <v>15</v>
       </c>
-      <c r="O30" s="45" t="n">
+      <c r="O30" s="51" t="n">
+        <v>44205.0726041667</v>
+      </c>
+      <c r="P30" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="P30" s="43" t="n">
+      <c r="Q30" s="32" t="n">
         <v>27</v>
-      </c>
-      <c r="Q30" s="47" t="n">
-        <v>44205.0726041667</v>
       </c>
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
@@ -10544,47 +10566,47 @@
       <c r="A31" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="45" t="s">
         <v>82</v>
       </c>
       <c r="C31" s="12"/>
-      <c r="D31" s="52" t="n">
+      <c r="D31" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="52" t="n">
+      <c r="E31" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="57" t="s">
         <v>87</v>
       </c>
       <c r="G31" s="12"/>
-      <c r="H31" s="43" t="n">
+      <c r="H31" s="32" t="n">
         <v>16</v>
       </c>
-      <c r="I31" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="J31" s="43" t="n">
+      <c r="I31" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="K31" s="43" t="n">
+      <c r="K31" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="L31" s="43" t="n">
+      <c r="L31" s="32" t="n">
         <v>240</v>
       </c>
       <c r="M31" s="12"/>
-      <c r="N31" s="22" t="n">
+      <c r="N31" s="48" t="n">
         <v>16</v>
       </c>
-      <c r="O31" s="45" t="n">
+      <c r="O31" s="49" t="n">
+        <v>44015.8149074074</v>
+      </c>
+      <c r="P31" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="P31" s="43" t="n">
+      <c r="Q31" s="32" t="n">
         <v>7</v>
-      </c>
-      <c r="Q31" s="46" t="s">
-        <v>150</v>
       </c>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
@@ -10604,47 +10626,47 @@
       <c r="A32" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="45" t="s">
         <v>87</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="52" t="n">
+      <c r="D32" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="E32" s="52" t="n">
+      <c r="E32" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="57" t="s">
         <v>73</v>
       </c>
       <c r="G32" s="12"/>
-      <c r="H32" s="43" t="n">
+      <c r="H32" s="32" t="n">
         <v>17</v>
       </c>
-      <c r="I32" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" s="43" t="n">
+      <c r="I32" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="K32" s="43" t="n">
+      <c r="K32" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="L32" s="43" t="n">
+      <c r="L32" s="32" t="n">
         <v>185</v>
       </c>
       <c r="M32" s="12"/>
-      <c r="N32" s="22" t="n">
+      <c r="N32" s="48" t="n">
         <v>17</v>
       </c>
-      <c r="O32" s="45" t="n">
+      <c r="O32" s="51" t="n">
+        <v>42790.8849768519</v>
+      </c>
+      <c r="P32" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="P32" s="43" t="n">
+      <c r="Q32" s="32" t="n">
         <v>12</v>
-      </c>
-      <c r="Q32" s="47" t="n">
-        <v>42790.8849768519</v>
       </c>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
@@ -10664,47 +10686,47 @@
       <c r="A33" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="52" t="n">
+      <c r="D33" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="E33" s="52" t="n">
+      <c r="E33" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="57" t="s">
         <v>87</v>
       </c>
       <c r="G33" s="12"/>
-      <c r="H33" s="43" t="n">
+      <c r="H33" s="32" t="n">
         <v>18</v>
       </c>
-      <c r="I33" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="J33" s="43" t="n">
+      <c r="I33" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="J33" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="K33" s="43" t="n">
+      <c r="K33" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="L33" s="43" t="n">
+      <c r="L33" s="32" t="n">
         <v>176</v>
       </c>
       <c r="M33" s="12"/>
-      <c r="N33" s="22" t="n">
+      <c r="N33" s="48" t="n">
         <v>18</v>
       </c>
-      <c r="O33" s="45" t="n">
+      <c r="O33" s="51" t="n">
+        <v>44049.6414699074</v>
+      </c>
+      <c r="P33" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="P33" s="43" t="n">
+      <c r="Q33" s="32" t="n">
         <v>14</v>
-      </c>
-      <c r="Q33" s="47" t="n">
-        <v>44049.6414699074</v>
       </c>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
@@ -10724,47 +10746,47 @@
       <c r="A34" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="45" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="52" t="n">
+      <c r="D34" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="E34" s="52" t="n">
+      <c r="E34" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="57" t="s">
         <v>82</v>
       </c>
       <c r="G34" s="12"/>
-      <c r="H34" s="43" t="n">
+      <c r="H34" s="32" t="n">
         <v>19</v>
       </c>
-      <c r="I34" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="J34" s="43" t="n">
+      <c r="I34" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="J34" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="K34" s="43" t="n">
+      <c r="K34" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="L34" s="43" t="n">
+      <c r="L34" s="32" t="n">
         <v>190</v>
       </c>
       <c r="M34" s="12"/>
-      <c r="N34" s="22" t="n">
+      <c r="N34" s="48" t="n">
         <v>19</v>
       </c>
-      <c r="O34" s="45" t="n">
+      <c r="O34" s="51" t="n">
+        <v>44145.5780902778</v>
+      </c>
+      <c r="P34" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="P34" s="43" t="n">
+      <c r="Q34" s="32" t="n">
         <v>1</v>
-      </c>
-      <c r="Q34" s="47" t="n">
-        <v>44145.5780902778</v>
       </c>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
@@ -10784,47 +10806,47 @@
       <c r="A35" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="44" t="s">
         <v>100</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="52" t="n">
+      <c r="D35" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="E35" s="52" t="n">
+      <c r="E35" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="F35" s="54" t="s">
+      <c r="F35" s="57" t="s">
         <v>73</v>
       </c>
       <c r="G35" s="12"/>
-      <c r="H35" s="43" t="n">
+      <c r="H35" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="I35" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="J35" s="43" t="n">
+      <c r="I35" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="K35" s="43" t="n">
+      <c r="K35" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="L35" s="43" t="n">
+      <c r="L35" s="32" t="n">
         <v>222</v>
       </c>
       <c r="M35" s="12"/>
-      <c r="N35" s="22" t="n">
+      <c r="N35" s="48" t="n">
         <v>20</v>
       </c>
-      <c r="O35" s="45" t="n">
+      <c r="O35" s="49" t="n">
+        <v>43503.8568055556</v>
+      </c>
+      <c r="P35" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="P35" s="43" t="n">
+      <c r="Q35" s="32" t="n">
         <v>38</v>
-      </c>
-      <c r="Q35" s="46" t="s">
-        <v>155</v>
       </c>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
@@ -10844,47 +10866,47 @@
       <c r="A36" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="44" t="s">
         <v>100</v>
       </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="52" t="n">
+      <c r="D36" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="E36" s="52" t="n">
+      <c r="E36" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="F36" s="53" t="s">
+      <c r="F36" s="57" t="s">
         <v>35</v>
       </c>
       <c r="G36" s="12"/>
-      <c r="H36" s="43" t="n">
+      <c r="H36" s="32" t="n">
         <v>21</v>
       </c>
-      <c r="I36" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="J36" s="43" t="n">
+      <c r="I36" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="J36" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="K36" s="43" t="n">
+      <c r="K36" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="L36" s="43" t="n">
+      <c r="L36" s="32" t="n">
         <v>111</v>
       </c>
       <c r="M36" s="12"/>
-      <c r="N36" s="22" t="n">
+      <c r="N36" s="48" t="n">
         <v>21</v>
       </c>
-      <c r="O36" s="45" t="n">
+      <c r="O36" s="51" t="n">
+        <v>42759.021724537</v>
+      </c>
+      <c r="P36" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="P36" s="43" t="n">
+      <c r="Q36" s="32" t="n">
         <v>29</v>
-      </c>
-      <c r="Q36" s="47" t="n">
-        <v>42759.021724537</v>
       </c>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
@@ -10904,47 +10926,47 @@
       <c r="A37" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="44" t="s">
         <v>100</v>
       </c>
       <c r="C37" s="12"/>
-      <c r="D37" s="52" t="n">
+      <c r="D37" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="E37" s="52" t="n">
+      <c r="E37" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="58" t="s">
         <v>100</v>
       </c>
       <c r="G37" s="12"/>
-      <c r="H37" s="43" t="n">
+      <c r="H37" s="32" t="n">
         <v>22</v>
       </c>
-      <c r="I37" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="J37" s="43" t="n">
+      <c r="I37" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="J37" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="K37" s="43" t="n">
+      <c r="K37" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="L37" s="43" t="n">
+      <c r="L37" s="32" t="n">
         <v>123</v>
       </c>
       <c r="M37" s="12"/>
-      <c r="N37" s="22" t="n">
+      <c r="N37" s="48" t="n">
         <v>22</v>
       </c>
-      <c r="O37" s="45" t="n">
+      <c r="O37" s="51" t="n">
+        <v>43020.524537037</v>
+      </c>
+      <c r="P37" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="P37" s="43" t="n">
+      <c r="Q37" s="32" t="n">
         <v>30</v>
-      </c>
-      <c r="Q37" s="47" t="n">
-        <v>43020.524537037</v>
       </c>
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
@@ -10964,47 +10986,47 @@
       <c r="A38" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="44" t="s">
         <v>113</v>
       </c>
       <c r="C38" s="12"/>
-      <c r="D38" s="52" t="n">
+      <c r="D38" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="E38" s="52" t="n">
+      <c r="E38" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="F38" s="56" t="s">
+      <c r="F38" s="58" t="s">
         <v>113</v>
       </c>
       <c r="G38" s="12"/>
-      <c r="H38" s="43" t="n">
+      <c r="H38" s="32" t="n">
         <v>23</v>
       </c>
-      <c r="I38" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="J38" s="43" t="n">
+      <c r="I38" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="J38" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="K38" s="43" t="n">
+      <c r="K38" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="L38" s="43" t="n">
+      <c r="L38" s="32" t="n">
         <v>197</v>
       </c>
       <c r="M38" s="12"/>
-      <c r="N38" s="22" t="n">
+      <c r="N38" s="48" t="n">
         <v>23</v>
       </c>
-      <c r="O38" s="45" t="n">
+      <c r="O38" s="51" t="n">
+        <v>43249.6226967593</v>
+      </c>
+      <c r="P38" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="P38" s="43" t="n">
+      <c r="Q38" s="32" t="n">
         <v>22</v>
-      </c>
-      <c r="Q38" s="47" t="n">
-        <v>43249.6226967593</v>
       </c>
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
@@ -11024,43 +11046,43 @@
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="52" t="n">
+      <c r="D39" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="E39" s="52" t="n">
+      <c r="E39" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="59" t="s">
         <v>113</v>
       </c>
       <c r="G39" s="12"/>
-      <c r="H39" s="43" t="n">
+      <c r="H39" s="32" t="n">
         <v>24</v>
       </c>
-      <c r="I39" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="J39" s="43" t="n">
+      <c r="I39" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J39" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="K39" s="43" t="n">
+      <c r="K39" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="L39" s="43" t="n">
+      <c r="L39" s="32" t="n">
         <v>179</v>
       </c>
       <c r="M39" s="12"/>
-      <c r="N39" s="22" t="n">
+      <c r="N39" s="48" t="n">
         <v>24</v>
       </c>
-      <c r="O39" s="45" t="n">
+      <c r="O39" s="49" t="n">
+        <v>43229.9380671296</v>
+      </c>
+      <c r="P39" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="P39" s="43" t="n">
+      <c r="Q39" s="32" t="n">
         <v>5</v>
-      </c>
-      <c r="Q39" s="46" t="s">
-        <v>160</v>
       </c>
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
@@ -11080,43 +11102,43 @@
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="52" t="n">
+      <c r="D40" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="E40" s="52" t="n">
+      <c r="E40" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="F40" s="57" t="s">
+      <c r="F40" s="59" t="s">
         <v>87</v>
       </c>
       <c r="G40" s="12"/>
-      <c r="H40" s="43" t="n">
+      <c r="H40" s="32" t="n">
         <v>25</v>
       </c>
-      <c r="I40" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="J40" s="43" t="n">
+      <c r="I40" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="J40" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="K40" s="43" t="n">
+      <c r="K40" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="L40" s="43" t="n">
+      <c r="L40" s="32" t="n">
         <v>229</v>
       </c>
       <c r="M40" s="12"/>
-      <c r="N40" s="22" t="n">
+      <c r="N40" s="48" t="n">
         <v>25</v>
       </c>
-      <c r="O40" s="45" t="n">
+      <c r="O40" s="51" t="n">
+        <v>44039.5367824074</v>
+      </c>
+      <c r="P40" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="P40" s="43" t="n">
+      <c r="Q40" s="32" t="n">
         <v>4</v>
-      </c>
-      <c r="Q40" s="47" t="n">
-        <v>44039.5367824074</v>
       </c>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
@@ -11136,43 +11158,43 @@
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="52" t="n">
+      <c r="D41" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="E41" s="52" t="n">
+      <c r="E41" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="57" t="s">
+      <c r="F41" s="59" t="s">
         <v>73</v>
       </c>
       <c r="G41" s="12"/>
-      <c r="H41" s="43" t="n">
+      <c r="H41" s="32" t="n">
         <v>26</v>
       </c>
-      <c r="I41" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="J41" s="43" t="n">
+      <c r="I41" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="J41" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="K41" s="43" t="n">
+      <c r="K41" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="L41" s="43" t="n">
+      <c r="L41" s="32" t="n">
         <v>135</v>
       </c>
       <c r="M41" s="12"/>
-      <c r="N41" s="22" t="n">
+      <c r="N41" s="48" t="n">
         <v>26</v>
       </c>
-      <c r="O41" s="45" t="n">
+      <c r="O41" s="51" t="n">
+        <v>43116.778275463</v>
+      </c>
+      <c r="P41" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="P41" s="43" t="n">
+      <c r="Q41" s="32" t="n">
         <v>11</v>
-      </c>
-      <c r="Q41" s="47" t="n">
-        <v>43116.778275463</v>
       </c>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
@@ -11192,43 +11214,43 @@
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="52" t="n">
+      <c r="D42" s="56" t="n">
         <v>7</v>
       </c>
-      <c r="E42" s="52" t="n">
+      <c r="E42" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="F42" s="30" t="s">
+      <c r="F42" s="59" t="s">
         <v>82</v>
       </c>
       <c r="G42" s="12"/>
-      <c r="H42" s="43" t="n">
+      <c r="H42" s="32" t="n">
         <v>27</v>
       </c>
-      <c r="I42" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="J42" s="43" t="n">
+      <c r="I42" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="J42" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="K42" s="43" t="n">
+      <c r="K42" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="L42" s="43" t="n">
+      <c r="L42" s="32" t="n">
         <v>150</v>
       </c>
       <c r="M42" s="12"/>
-      <c r="N42" s="22" t="n">
+      <c r="N42" s="48" t="n">
         <v>27</v>
       </c>
-      <c r="O42" s="45" t="n">
+      <c r="O42" s="49" t="n">
+        <v>43180.7060185185</v>
+      </c>
+      <c r="P42" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="P42" s="43" t="n">
+      <c r="Q42" s="32" t="n">
         <v>39</v>
-      </c>
-      <c r="Q42" s="46" t="s">
-        <v>164</v>
       </c>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
@@ -11248,43 +11270,43 @@
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="52" t="n">
+      <c r="D43" s="56" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="52" t="n">
+      <c r="E43" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="F43" s="57" t="s">
+      <c r="F43" s="59" t="s">
         <v>100</v>
       </c>
       <c r="G43" s="12"/>
-      <c r="H43" s="43" t="n">
+      <c r="H43" s="32" t="n">
         <v>28</v>
       </c>
-      <c r="I43" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="J43" s="43" t="n">
+      <c r="I43" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="J43" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="K43" s="43" t="n">
+      <c r="K43" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="L43" s="43" t="n">
+      <c r="L43" s="32" t="n">
         <v>166</v>
       </c>
       <c r="M43" s="12"/>
-      <c r="N43" s="22" t="n">
+      <c r="N43" s="48" t="n">
         <v>28</v>
       </c>
-      <c r="O43" s="45" t="n">
+      <c r="O43" s="51" t="n">
+        <v>44122.5681134259</v>
+      </c>
+      <c r="P43" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="P43" s="43" t="n">
+      <c r="Q43" s="32" t="n">
         <v>40</v>
-      </c>
-      <c r="Q43" s="47" t="n">
-        <v>44122.5681134259</v>
       </c>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
@@ -11304,43 +11326,43 @@
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="52" t="n">
+      <c r="D44" s="56" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="52" t="n">
+      <c r="E44" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="F44" s="30" t="s">
+      <c r="F44" s="59" t="s">
         <v>73</v>
       </c>
       <c r="G44" s="12"/>
-      <c r="H44" s="43" t="n">
+      <c r="H44" s="32" t="n">
         <v>29</v>
       </c>
-      <c r="I44" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="J44" s="43" t="n">
+      <c r="I44" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="J44" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="K44" s="43" t="n">
+      <c r="K44" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="L44" s="43" t="n">
+      <c r="L44" s="32" t="n">
         <v>154</v>
       </c>
       <c r="M44" s="12"/>
-      <c r="N44" s="22" t="n">
+      <c r="N44" s="48" t="n">
         <v>29</v>
       </c>
-      <c r="O44" s="45" t="n">
+      <c r="O44" s="51" t="n">
+        <v>43610.3430902778</v>
+      </c>
+      <c r="P44" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="P44" s="43" t="n">
+      <c r="Q44" s="32" t="n">
         <v>32</v>
-      </c>
-      <c r="Q44" s="47" t="n">
-        <v>43610.3430902778</v>
       </c>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
@@ -11360,43 +11382,43 @@
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="52" t="n">
+      <c r="D45" s="56" t="n">
         <v>8</v>
       </c>
-      <c r="E45" s="52" t="n">
+      <c r="E45" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="F45" s="57" t="s">
+      <c r="F45" s="59" t="s">
         <v>100</v>
       </c>
       <c r="G45" s="12"/>
-      <c r="H45" s="43" t="n">
+      <c r="H45" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="I45" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="J45" s="43" t="n">
+      <c r="I45" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="J45" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="K45" s="43" t="n">
+      <c r="K45" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="L45" s="43" t="n">
+      <c r="L45" s="32" t="n">
         <v>210</v>
       </c>
       <c r="M45" s="12"/>
-      <c r="N45" s="22" t="n">
+      <c r="N45" s="48" t="n">
         <v>30</v>
       </c>
-      <c r="O45" s="45" t="n">
+      <c r="O45" s="51" t="n">
+        <v>44423.9007986111</v>
+      </c>
+      <c r="P45" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="P45" s="43" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="47" t="n">
-        <v>44423.9007986111</v>
+      <c r="Q45" s="32" t="n">
+        <v>33</v>
       </c>
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
@@ -11416,43 +11438,43 @@
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="52" t="n">
+      <c r="D46" s="56" t="n">
         <v>9</v>
       </c>
-      <c r="E46" s="52" t="n">
+      <c r="E46" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="F46" s="30" t="s">
+      <c r="F46" s="59" t="s">
         <v>113</v>
       </c>
       <c r="G46" s="12"/>
-      <c r="H46" s="43" t="n">
+      <c r="H46" s="32" t="n">
         <v>31</v>
       </c>
-      <c r="I46" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="J46" s="43" t="n">
+      <c r="I46" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="J46" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="K46" s="43" t="n">
+      <c r="K46" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="L46" s="43" t="n">
+      <c r="L46" s="32" t="n">
         <v>117</v>
       </c>
       <c r="M46" s="12"/>
-      <c r="N46" s="22" t="n">
+      <c r="N46" s="48" t="n">
         <v>31</v>
       </c>
-      <c r="O46" s="45" t="n">
+      <c r="O46" s="49" t="n">
+        <v>44340.7248263889</v>
+      </c>
+      <c r="P46" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="P46" s="43" t="n">
+      <c r="Q46" s="32" t="n">
         <v>16</v>
-      </c>
-      <c r="Q46" s="46" t="s">
-        <v>169</v>
       </c>
       <c r="R46" s="12"/>
       <c r="S46" s="12"/>
@@ -11472,43 +11494,43 @@
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
-      <c r="D47" s="52" t="n">
+      <c r="D47" s="56" t="n">
         <v>9</v>
       </c>
-      <c r="E47" s="52" t="n">
+      <c r="E47" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="F47" s="57" t="s">
+      <c r="F47" s="59" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="12"/>
-      <c r="H47" s="43" t="n">
+      <c r="H47" s="32" t="n">
         <v>32</v>
       </c>
-      <c r="I47" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="J47" s="43" t="n">
+      <c r="I47" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="J47" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="K47" s="43" t="n">
+      <c r="K47" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="L47" s="43" t="n">
+      <c r="L47" s="32" t="n">
         <v>159</v>
       </c>
       <c r="M47" s="12"/>
-      <c r="N47" s="22" t="n">
+      <c r="N47" s="48" t="n">
         <v>32</v>
       </c>
-      <c r="O47" s="45" t="n">
+      <c r="O47" s="51" t="n">
+        <v>43441.9506018519</v>
+      </c>
+      <c r="P47" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="P47" s="43" t="n">
+      <c r="Q47" s="32" t="n">
         <v>17</v>
-      </c>
-      <c r="Q47" s="47" t="n">
-        <v>43441.9506018519</v>
       </c>
       <c r="R47" s="12"/>
       <c r="S47" s="12"/>
@@ -11528,43 +11550,43 @@
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
-      <c r="D48" s="52" t="n">
+      <c r="D48" s="56" t="n">
         <v>9</v>
       </c>
-      <c r="E48" s="52" t="n">
+      <c r="E48" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="F48" s="57" t="s">
+      <c r="F48" s="59" t="s">
         <v>87</v>
       </c>
       <c r="G48" s="12"/>
-      <c r="H48" s="43" t="n">
+      <c r="H48" s="32" t="n">
         <v>33</v>
       </c>
-      <c r="I48" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="J48" s="43" t="n">
+      <c r="I48" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="J48" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="K48" s="43" t="n">
+      <c r="K48" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="L48" s="43" t="n">
+      <c r="L48" s="32" t="n">
         <v>138</v>
       </c>
       <c r="M48" s="12"/>
-      <c r="N48" s="22" t="n">
+      <c r="N48" s="48" t="n">
         <v>33</v>
       </c>
-      <c r="O48" s="45" t="n">
+      <c r="O48" s="51" t="n">
+        <v>44269.2600231482</v>
+      </c>
+      <c r="P48" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="P48" s="43" t="n">
+      <c r="Q48" s="32" t="n">
         <v>8</v>
-      </c>
-      <c r="Q48" s="47" t="n">
-        <v>44269.2600231482</v>
       </c>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
@@ -11584,43 +11606,43 @@
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="52" t="n">
+      <c r="D49" s="56" t="n">
         <v>10</v>
       </c>
-      <c r="E49" s="52" t="n">
+      <c r="E49" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="F49" s="30" t="s">
+      <c r="F49" s="59" t="s">
         <v>82</v>
       </c>
       <c r="G49" s="12"/>
-      <c r="H49" s="43" t="n">
+      <c r="H49" s="32" t="n">
         <v>34</v>
       </c>
-      <c r="I49" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="J49" s="43" t="n">
+      <c r="I49" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="J49" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="K49" s="43" t="n">
+      <c r="K49" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="L49" s="43" t="n">
+      <c r="L49" s="32" t="n">
         <v>120</v>
       </c>
       <c r="M49" s="12"/>
-      <c r="N49" s="22" t="n">
+      <c r="N49" s="48" t="n">
         <v>34</v>
       </c>
-      <c r="O49" s="45" t="n">
+      <c r="O49" s="51" t="n">
+        <v>43922.15</v>
+      </c>
+      <c r="P49" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="P49" s="43" t="n">
+      <c r="Q49" s="32" t="n">
         <v>9</v>
-      </c>
-      <c r="Q49" s="47" t="n">
-        <v>43922.15</v>
       </c>
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
@@ -11640,43 +11662,43 @@
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="52" t="n">
+      <c r="D50" s="56" t="n">
         <v>10</v>
       </c>
-      <c r="E50" s="52" t="n">
+      <c r="E50" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="60" t="s">
         <v>113</v>
       </c>
       <c r="G50" s="12"/>
-      <c r="H50" s="43" t="n">
+      <c r="H50" s="32" t="n">
         <v>35</v>
       </c>
-      <c r="I50" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="J50" s="43" t="n">
+      <c r="I50" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="K50" s="43" t="n">
+      <c r="K50" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="L50" s="43" t="n">
+      <c r="L50" s="32" t="n">
         <v>151</v>
       </c>
       <c r="M50" s="12"/>
-      <c r="N50" s="22" t="n">
+      <c r="N50" s="48" t="n">
         <v>35</v>
       </c>
-      <c r="O50" s="45" t="n">
+      <c r="O50" s="49" t="n">
+        <v>42772.3483101852</v>
+      </c>
+      <c r="P50" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="P50" s="43" t="n">
+      <c r="Q50" s="32" t="n">
         <v>20</v>
-      </c>
-      <c r="Q50" s="46" t="s">
-        <v>174</v>
       </c>
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
@@ -11700,33 +11722,33 @@
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="43" t="n">
+      <c r="H51" s="32" t="n">
         <v>36</v>
       </c>
-      <c r="I51" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="J51" s="43" t="n">
+      <c r="I51" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J51" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="K51" s="43" t="n">
+      <c r="K51" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="L51" s="43" t="n">
+      <c r="L51" s="32" t="n">
         <v>79</v>
       </c>
       <c r="M51" s="12"/>
-      <c r="N51" s="22" t="n">
+      <c r="N51" s="48" t="n">
         <v>36</v>
       </c>
-      <c r="O51" s="45" t="n">
+      <c r="O51" s="51" t="n">
+        <v>43073.2317476852</v>
+      </c>
+      <c r="P51" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="P51" s="43" t="n">
+      <c r="Q51" s="32" t="n">
         <v>21</v>
-      </c>
-      <c r="Q51" s="47" t="n">
-        <v>43073.2317476852</v>
       </c>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
@@ -11750,33 +11772,33 @@
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="43" t="n">
+      <c r="H52" s="32" t="n">
         <v>37</v>
       </c>
-      <c r="I52" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="J52" s="43" t="n">
+      <c r="I52" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="J52" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="K52" s="43" t="n">
+      <c r="K52" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="L52" s="43" t="n">
+      <c r="L52" s="32" t="n">
         <v>95</v>
       </c>
       <c r="M52" s="12"/>
-      <c r="N52" s="22" t="n">
+      <c r="N52" s="48" t="n">
         <v>37</v>
       </c>
-      <c r="O52" s="45" t="n">
+      <c r="O52" s="51" t="n">
+        <v>42943.2255671296</v>
+      </c>
+      <c r="P52" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="P52" s="43" t="n">
+      <c r="Q52" s="32" t="n">
         <v>12</v>
-      </c>
-      <c r="Q52" s="47" t="n">
-        <v>42943.2255671296</v>
       </c>
       <c r="R52" s="12"/>
       <c r="S52" s="12"/>
@@ -11800,33 +11822,33 @@
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
-      <c r="H53" s="43" t="n">
+      <c r="H53" s="32" t="n">
         <v>38</v>
       </c>
-      <c r="I53" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="J53" s="43" t="n">
+      <c r="I53" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="J53" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="K53" s="43" t="n">
+      <c r="K53" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="L53" s="43" t="n">
+      <c r="L53" s="32" t="n">
         <v>213</v>
       </c>
       <c r="M53" s="12"/>
-      <c r="N53" s="22" t="n">
+      <c r="N53" s="48" t="n">
         <v>38</v>
       </c>
-      <c r="O53" s="45" t="n">
+      <c r="O53" s="51" t="n">
+        <v>43094.0444097222</v>
+      </c>
+      <c r="P53" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="P53" s="43" t="n">
+      <c r="Q53" s="32" t="n">
         <v>13</v>
-      </c>
-      <c r="Q53" s="47" t="n">
-        <v>43094.0444097222</v>
       </c>
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
@@ -11850,19 +11872,19 @@
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
-      <c r="H54" s="43" t="n">
+      <c r="H54" s="32" t="n">
         <v>39</v>
       </c>
-      <c r="I54" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="J54" s="43" t="n">
+      <c r="I54" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J54" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="K54" s="43" t="n">
+      <c r="K54" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="L54" s="43" t="n">
+      <c r="L54" s="32" t="n">
         <v>136</v>
       </c>
       <c r="M54" s="12"/>
@@ -11892,19 +11914,19 @@
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
-      <c r="H55" s="43" t="n">
+      <c r="H55" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="I55" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="J55" s="43" t="n">
+      <c r="I55" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="J55" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="K55" s="43" t="n">
+      <c r="K55" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="L55" s="43" t="n">
+      <c r="L55" s="32" t="n">
         <v>83</v>
       </c>
       <c r="M55" s="12"/>
@@ -17216,7 +17238,7 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="H14:L14"/>
-    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="O14:Q14"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:F27"/>
   </mergeCells>
@@ -17237,269 +17259,269 @@
   </sheetPr>
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P15" activeCellId="0" sqref="P15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P55" activeCellId="0" sqref="P55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.1796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="59" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="59" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="59" width="31.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="59" width="4.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="59" width="4.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="8" style="59" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="59" width="33.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="12" style="59" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="59" width="9.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="59" width="20.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="61" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="61" width="6.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="61" width="31.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="61" width="4.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="61" width="4.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="8" style="61" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="61" width="33.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="12" style="61" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="61" width="9.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="17" style="61" width="20.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="64" t="n">
+        <v>43953.2295717593</v>
+      </c>
+      <c r="H1" s="64" t="n">
+        <v>43896.4739930556</v>
+      </c>
+      <c r="I1" s="64" t="n">
+        <v>44048.3370023148</v>
+      </c>
+      <c r="J1" s="64" t="n">
+        <v>44088.6891435185</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="F2" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="G2" s="64" t="n">
+        <v>43967.2613657407</v>
+      </c>
+      <c r="H2" s="64" t="n">
+        <v>44113.5193055556</v>
+      </c>
+      <c r="I2" s="64" t="n">
+        <v>44095.5519212963</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="B3" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="C3" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="62" t="n">
-        <v>43953.2295717593</v>
-      </c>
-      <c r="H1" s="62" t="n">
-        <v>43896.4739930556</v>
-      </c>
-      <c r="I1" s="62" t="n">
-        <v>44048.3370023148</v>
-      </c>
-      <c r="J1" s="62" t="n">
-        <v>44088.6891435185</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="s">
+      <c r="F3" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="G3" s="66" t="n">
+        <v>44170.7767361111</v>
+      </c>
+      <c r="H3" s="66" t="n">
+        <v>44042.4166666667</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="B4" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="C4" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="62" t="n">
-        <v>43967.2613657407</v>
-      </c>
-      <c r="H2" s="62" t="n">
-        <v>44113.5193055556</v>
-      </c>
-      <c r="I2" s="62" t="n">
-        <v>44095.5519212963</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
+      <c r="F4" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="G4" s="66" t="n">
+        <v>44387.6392361111</v>
+      </c>
+      <c r="H4" s="66" t="n">
+        <v>44205.0726041667</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="B5" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="64" t="n">
-        <v>44170.7767361111</v>
-      </c>
-      <c r="H3" s="64" t="n">
-        <v>44042.4166666667</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
+      <c r="C5" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="F5" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="G5" s="66" t="n">
+        <v>42790.8849768519</v>
+      </c>
+      <c r="H5" s="66" t="n">
+        <v>44049.6414699074</v>
+      </c>
+      <c r="I5" s="66" t="n">
+        <v>44145.5780902778</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="64" t="n">
-        <v>44387.6392361111</v>
-      </c>
-      <c r="H4" s="64" t="n">
-        <v>44205.0726041667</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="65" t="s">
+      <c r="B6" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="C6" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="66" t="s">
+      <c r="D6" s="68" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="63" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="64" t="n">
-        <v>42790.8849768519</v>
-      </c>
-      <c r="H5" s="64" t="n">
-        <v>44049.6414699074</v>
-      </c>
-      <c r="I5" s="64" t="n">
-        <v>44145.5780902778</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="65" t="s">
+      <c r="F6" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="G6" s="66" t="n">
+        <v>42759.021724537</v>
+      </c>
+      <c r="H6" s="66" t="n">
+        <v>43020.524537037</v>
+      </c>
+      <c r="I6" s="66" t="n">
+        <v>43249.6226967593</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="B7" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="C7" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="64" t="n">
-        <v>42759.021724537</v>
-      </c>
-      <c r="H6" s="64" t="n">
-        <v>43020.524537037</v>
-      </c>
-      <c r="I6" s="64" t="n">
-        <v>43249.6226967593</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="65" t="s">
+      <c r="F7" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="G7" s="66" t="n">
+        <v>44039.5367824074</v>
+      </c>
+      <c r="H7" s="66" t="n">
+        <v>43116.778275463</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="B8" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="64" t="n">
-        <v>44039.5367824074</v>
-      </c>
-      <c r="H7" s="64" t="n">
-        <v>43116.778275463</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="65" t="s">
+      <c r="C8" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="D8" s="68" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="F8" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="G8" s="66" t="n">
+        <v>44122.5681134259</v>
+      </c>
+      <c r="H8" s="66" t="n">
+        <v>43610.3430902778</v>
+      </c>
+      <c r="I8" s="66" t="n">
+        <v>44423.9007986111</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="64" t="n">
-        <v>44122.5681134259</v>
-      </c>
-      <c r="H8" s="64" t="n">
-        <v>43610.3430902778</v>
-      </c>
-      <c r="I8" s="64" t="n">
-        <v>44423.9007986111</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="65" t="s">
+      <c r="B9" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="C9" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="D9" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="F9" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="64" t="n">
+      <c r="G9" s="66" t="n">
         <v>43441.9506018519</v>
       </c>
-      <c r="H9" s="64" t="n">
+      <c r="H9" s="66" t="n">
         <v>44269.2600231482</v>
       </c>
-      <c r="I9" s="64" t="n">
+      <c r="I9" s="66" t="n">
         <v>43922.15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="B10" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="66" t="s">
+      <c r="B10" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="64" t="n">
+      <c r="F10" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="66" t="n">
         <v>43073.2317476852</v>
       </c>
-      <c r="H10" s="64" t="n">
+      <c r="H10" s="66" t="n">
         <v>42943.2255671296</v>
       </c>
-      <c r="I10" s="64" t="n">
+      <c r="I10" s="66" t="n">
         <v>43094.0444097222</v>
       </c>
     </row>
@@ -17510,1787 +17532,1786 @@
       <c r="M14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="O14" s="40" t="s">
+      <c r="O14" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="61" t="n">
+        <v>39</v>
+      </c>
+      <c r="G15" s="50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="43" t="n">
+      <c r="I15" s="73" t="n">
+        <v>44095.5519212963</v>
+      </c>
+      <c r="J15" s="0"/>
+      <c r="K15" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="L15" s="32" t="n">
+        <v>39</v>
+      </c>
+      <c r="M15" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="59" t="n">
-        <v>39</v>
-      </c>
-      <c r="G15" s="45" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15" s="47" t="n">
-        <v>44095.5519212963</v>
-      </c>
-      <c r="J15" s="0"/>
-      <c r="K15" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="L15" s="43" t="n">
-        <v>39</v>
-      </c>
-      <c r="M15" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="O15" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="P15" s="59" t="n">
+      <c r="N15" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="O15" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="P15" s="61" t="n">
         <f aca="false">VLOOKUP(N15,$K$15:$L$54,2)</f>
         <v>36</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="47" t="n">
+      <c r="A16" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="73" t="n">
         <v>43953.2295717593</v>
       </c>
-      <c r="D16" s="43" t="n">
+      <c r="D16" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" s="59" t="n">
+      <c r="E16" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="61" t="n">
         <v>39</v>
       </c>
-      <c r="G16" s="45" t="n">
+      <c r="G16" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="H16" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>164</v>
+      <c r="H16" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="I16" s="70" t="s">
+        <v>207</v>
       </c>
       <c r="J16" s="0"/>
-      <c r="K16" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="L16" s="43" t="n">
+      <c r="K16" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="32" t="n">
         <v>11</v>
       </c>
-      <c r="M16" s="45" t="n">
+      <c r="M16" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="N16" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="O16" s="47" t="n">
+      <c r="N16" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="O16" s="73" t="n">
         <v>43953.2295717593</v>
       </c>
-      <c r="P16" s="59" t="n">
+      <c r="P16" s="61" t="n">
         <f aca="false">VLOOKUP(N16,$K$15:$L$54,2)</f>
         <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="47" t="n">
+      <c r="A17" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="73" t="n">
         <v>43896.4739930556</v>
       </c>
-      <c r="D17" s="43" t="n">
+      <c r="D17" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="E17" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17" s="59" t="n">
+      <c r="E17" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="61" t="n">
         <v>11</v>
       </c>
-      <c r="G17" s="45" t="n">
+      <c r="G17" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="H17" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="I17" s="47" t="n">
+      <c r="H17" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="73" t="n">
         <v>43116.778275463</v>
       </c>
       <c r="J17" s="0"/>
-      <c r="K17" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="L17" s="43" t="n">
+      <c r="K17" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="32" t="n">
         <v>3</v>
       </c>
-      <c r="M17" s="45" t="n">
+      <c r="M17" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="N17" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="O17" s="47" t="n">
+      <c r="N17" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" s="73" t="n">
         <v>43896.4739930556</v>
       </c>
-      <c r="P17" s="59" t="n">
+      <c r="P17" s="61" t="n">
         <f aca="false">VLOOKUP(N17,$K$15:$L$54,2)</f>
         <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="73" t="n">
+        <v>44048.3370023148</v>
+      </c>
+      <c r="D18" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="47" t="n">
+      <c r="I18" s="73" t="n">
+        <v>44170.7767361111</v>
+      </c>
+      <c r="J18" s="0"/>
+      <c r="K18" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" s="32" t="n">
+        <v>14</v>
+      </c>
+      <c r="M18" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" s="73" t="n">
         <v>44048.3370023148</v>
       </c>
-      <c r="D18" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="59" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="45" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="73" t="s">
-        <v>190</v>
-      </c>
-      <c r="I18" s="47" t="n">
-        <v>44170.7767361111</v>
-      </c>
-      <c r="J18" s="0"/>
-      <c r="K18" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="L18" s="43" t="n">
-        <v>14</v>
-      </c>
-      <c r="M18" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="O18" s="47" t="n">
-        <v>44048.3370023148</v>
-      </c>
-      <c r="P18" s="59" t="n">
+      <c r="P18" s="61" t="n">
         <f aca="false">VLOOKUP(N18,$K$15:$L$54,2)</f>
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="47" t="n">
+      <c r="A19" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="73" t="n">
         <v>44088.6891435185</v>
       </c>
-      <c r="D19" s="43" t="n">
+      <c r="D19" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="59" t="n">
+      <c r="E19" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="61" t="n">
         <v>14</v>
       </c>
-      <c r="G19" s="45" t="n">
+      <c r="G19" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="H19" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="I19" s="47" t="n">
+      <c r="H19" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="73" t="n">
         <v>44048.3370023148</v>
       </c>
       <c r="J19" s="0"/>
-      <c r="K19" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="L19" s="43" t="n">
+      <c r="K19" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="M19" s="45" t="n">
+      <c r="M19" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="N19" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="O19" s="47" t="n">
+      <c r="N19" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" s="73" t="n">
         <v>44088.6891435185</v>
       </c>
-      <c r="P19" s="59" t="n">
+      <c r="P19" s="61" t="n">
         <f aca="false">VLOOKUP(N19,$K$15:$L$54,2)</f>
         <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="43" t="n">
+      <c r="A20" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="E20" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="59" t="n">
+      <c r="E20" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="61" t="n">
         <v>14</v>
       </c>
-      <c r="G20" s="45" t="n">
+      <c r="G20" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="H20" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="I20" s="47" t="n">
+      <c r="H20" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="73" t="n">
         <v>44049.6414699074</v>
       </c>
       <c r="J20" s="0"/>
-      <c r="K20" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="L20" s="43" t="n">
+      <c r="K20" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" s="32" t="n">
         <v>24</v>
       </c>
-      <c r="M20" s="45" t="n">
+      <c r="M20" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="N20" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="O20" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="P20" s="59" t="n">
+      <c r="N20" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="61" t="n">
         <f aca="false">VLOOKUP(N20,$K$15:$L$54,2)</f>
         <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21" s="47" t="n">
+      <c r="A21" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="73" t="n">
         <v>43967.2613657407</v>
       </c>
-      <c r="D21" s="43" t="n">
+      <c r="D21" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="E21" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="F21" s="59" t="n">
+      <c r="E21" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="61" t="n">
         <v>24</v>
       </c>
-      <c r="G21" s="45" t="n">
+      <c r="G21" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="I21" s="47" t="n">
+      <c r="H21" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="73" t="n">
         <v>43967.2613657407</v>
       </c>
       <c r="J21" s="0"/>
-      <c r="K21" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="L21" s="43" t="n">
+      <c r="K21" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" s="32" t="n">
         <v>26</v>
       </c>
-      <c r="M21" s="45" t="n">
+      <c r="M21" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="N21" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="O21" s="47" t="n">
+      <c r="N21" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" s="73" t="n">
         <v>43967.2613657407</v>
       </c>
-      <c r="P21" s="59" t="n">
+      <c r="P21" s="61" t="n">
         <f aca="false">VLOOKUP(N21,$K$15:$L$54,2)</f>
         <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="47" t="n">
+      <c r="A22" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="73" t="n">
         <v>44113.5193055556</v>
       </c>
-      <c r="D22" s="43" t="n">
+      <c r="D22" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="E22" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="F22" s="59" t="n">
+      <c r="E22" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="61" t="n">
         <v>26</v>
       </c>
-      <c r="G22" s="45" t="n">
+      <c r="G22" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="H22" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="I22" s="47" t="n">
+      <c r="H22" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="73" t="n">
         <v>44042.4166666667</v>
       </c>
       <c r="J22" s="0"/>
-      <c r="K22" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="L22" s="43" t="n">
+      <c r="K22" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" s="32" t="n">
         <v>29</v>
       </c>
-      <c r="M22" s="45" t="n">
+      <c r="M22" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="N22" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="O22" s="47" t="n">
+      <c r="N22" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" s="73" t="n">
         <v>44113.5193055556</v>
       </c>
-      <c r="P22" s="59" t="n">
+      <c r="P22" s="61" t="n">
         <f aca="false">VLOOKUP(N22,$K$15:$L$54,2)</f>
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" s="47" t="n">
+      <c r="A23" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="73" t="n">
         <v>44095.5519212963</v>
       </c>
-      <c r="D23" s="43" t="n">
+      <c r="D23" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="59" t="n">
+      <c r="E23" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" s="61" t="n">
         <v>29</v>
       </c>
-      <c r="G23" s="45" t="n">
+      <c r="G23" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="H23" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="I23" s="47" t="n">
+      <c r="H23" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="I23" s="73" t="n">
         <v>42759.021724537</v>
       </c>
       <c r="J23" s="0"/>
-      <c r="K23" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="L23" s="43" t="n">
+      <c r="K23" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" s="32" t="n">
         <v>30</v>
       </c>
-      <c r="M23" s="45" t="n">
+      <c r="M23" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="N23" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="O23" s="47" t="n">
+      <c r="N23" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" s="73" t="n">
         <v>44095.5519212963</v>
       </c>
-      <c r="P23" s="59" t="n">
+      <c r="P23" s="61" t="n">
         <f aca="false">VLOOKUP(N23,$K$15:$L$54,2)</f>
         <v>39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="43" t="n">
+      <c r="A24" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="E24" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="59" t="n">
+      <c r="E24" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="61" t="n">
         <v>30</v>
       </c>
-      <c r="G24" s="45" t="n">
+      <c r="G24" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="H24" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="I24" s="47" t="n">
+      <c r="H24" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="I24" s="73" t="n">
         <v>43020.524537037</v>
       </c>
       <c r="J24" s="0"/>
-      <c r="K24" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="L24" s="43" t="n">
+      <c r="K24" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" s="32" t="n">
         <v>33</v>
       </c>
-      <c r="M24" s="45" t="n">
+      <c r="M24" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="N24" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="O24" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="P24" s="59" t="n">
+      <c r="N24" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" s="70" t="s">
+        <v>185</v>
+      </c>
+      <c r="P24" s="61" t="n">
         <f aca="false">VLOOKUP(N24,$K$15:$L$54,2)</f>
         <v>6</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="73" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="47" t="n">
+      <c r="A25" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="73" t="n">
         <v>44170.7767361111</v>
       </c>
-      <c r="D25" s="43" t="n">
+      <c r="D25" s="32" t="n">
         <v>11</v>
       </c>
-      <c r="E25" s="71" t="s">
-        <v>204</v>
-      </c>
-      <c r="F25" s="59" t="n">
+      <c r="E25" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="61" t="n">
         <v>33</v>
       </c>
-      <c r="G25" s="45" t="n">
+      <c r="G25" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="H25" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="I25" s="47" t="n">
+      <c r="H25" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="I25" s="73" t="n">
         <v>44423.9007986111</v>
       </c>
       <c r="J25" s="0"/>
-      <c r="K25" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="L25" s="43" t="n">
+      <c r="K25" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="32" t="n">
         <v>32</v>
       </c>
-      <c r="M25" s="45" t="n">
+      <c r="M25" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="N25" s="73" t="s">
-        <v>190</v>
-      </c>
-      <c r="O25" s="47" t="n">
+      <c r="N25" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" s="73" t="n">
         <v>44170.7767361111</v>
       </c>
-      <c r="P25" s="59" t="n">
+      <c r="P25" s="61" t="n">
         <f aca="false">VLOOKUP(N25,$K$15:$L$54,2)</f>
         <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="73" t="n">
+        <v>44042.4166666667</v>
+      </c>
+      <c r="D26" s="32" t="n">
+        <v>12</v>
+      </c>
+      <c r="E26" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="B26" s="47" t="n">
+      <c r="F26" s="61" t="n">
+        <v>32</v>
+      </c>
+      <c r="G26" s="50" t="n">
+        <v>8</v>
+      </c>
+      <c r="H26" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" s="73" t="n">
+        <v>43610.3430902778</v>
+      </c>
+      <c r="J26" s="0"/>
+      <c r="K26" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" s="32" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" s="73" t="n">
         <v>44042.4166666667</v>
       </c>
-      <c r="D26" s="43" t="n">
-        <v>12</v>
-      </c>
-      <c r="E26" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" s="59" t="n">
-        <v>32</v>
-      </c>
-      <c r="G26" s="45" t="n">
-        <v>8</v>
-      </c>
-      <c r="H26" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="I26" s="47" t="n">
-        <v>43610.3430902778</v>
-      </c>
-      <c r="J26" s="0"/>
-      <c r="K26" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="L26" s="43" t="n">
-        <v>20</v>
-      </c>
-      <c r="M26" s="45" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="O26" s="47" t="n">
-        <v>44042.4166666667</v>
-      </c>
-      <c r="P26" s="59" t="n">
+      <c r="P26" s="61" t="n">
         <f aca="false">VLOOKUP(N26,$K$15:$L$54,2)</f>
         <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="43" t="n">
+      <c r="A27" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="32" t="n">
         <v>13</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="59" t="n">
+      <c r="F27" s="61" t="n">
         <v>20</v>
       </c>
-      <c r="G27" s="45" t="n">
+      <c r="G27" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="H27" s="72" t="s">
+      <c r="H27" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="46" t="s">
-        <v>174</v>
+      <c r="I27" s="70" t="s">
+        <v>215</v>
       </c>
       <c r="J27" s="0"/>
-      <c r="K27" s="71" t="s">
+      <c r="K27" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="L27" s="43" t="n">
+      <c r="L27" s="32" t="n">
         <v>13</v>
       </c>
-      <c r="M27" s="45" t="n">
+      <c r="M27" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="N27" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="O27" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="P27" s="59" t="n">
+      <c r="N27" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="P27" s="61" t="n">
         <f aca="false">VLOOKUP(N27,$K$15:$L$54,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="B28" s="47" t="n">
+      <c r="A28" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="73" t="n">
         <v>44387.6392361111</v>
       </c>
-      <c r="D28" s="43" t="n">
+      <c r="D28" s="32" t="n">
         <v>14</v>
       </c>
-      <c r="E28" s="71" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" s="59" t="n">
+      <c r="E28" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="F28" s="61" t="n">
         <v>13</v>
       </c>
-      <c r="G28" s="45" t="n">
+      <c r="G28" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="H28" s="69" t="s">
+      <c r="H28" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="I28" s="47" t="n">
+      <c r="I28" s="73" t="n">
         <v>43094.0444097222</v>
       </c>
       <c r="J28" s="0"/>
-      <c r="K28" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="L28" s="43" t="n">
+      <c r="K28" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" s="32" t="n">
         <v>36</v>
       </c>
-      <c r="M28" s="45" t="n">
+      <c r="M28" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="N28" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="O28" s="47" t="n">
+      <c r="N28" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="O28" s="73" t="n">
         <v>44387.6392361111</v>
       </c>
-      <c r="P28" s="59" t="n">
+      <c r="P28" s="61" t="n">
         <f aca="false">VLOOKUP(N28,$K$15:$L$54,2)</f>
         <v>35</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="B29" s="47" t="n">
+      <c r="A29" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="73" t="n">
         <v>44205.0726041667</v>
       </c>
-      <c r="D29" s="43" t="n">
+      <c r="D29" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="E29" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="F29" s="59" t="n">
+      <c r="E29" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="61" t="n">
         <v>27</v>
       </c>
-      <c r="G29" s="45" t="n">
+      <c r="G29" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="H29" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="47" t="n">
+      <c r="H29" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="I29" s="73" t="n">
         <v>44205.0726041667</v>
       </c>
       <c r="J29" s="0"/>
-      <c r="K29" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="L29" s="43" t="n">
+      <c r="K29" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="L29" s="32" t="n">
         <v>27</v>
       </c>
-      <c r="M29" s="45" t="n">
+      <c r="M29" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="N29" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="O29" s="47" t="n">
+      <c r="N29" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="O29" s="73" t="n">
         <v>44205.0726041667</v>
       </c>
-      <c r="P29" s="59" t="n">
+      <c r="P29" s="61" t="n">
         <f aca="false">VLOOKUP(N29,$K$15:$L$54,2)</f>
         <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="43" t="n">
+      <c r="A30" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="32" t="n">
         <v>16</v>
       </c>
-      <c r="E30" s="71" t="s">
-        <v>224</v>
-      </c>
-      <c r="F30" s="59" t="n">
+      <c r="E30" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" s="61" t="n">
         <v>7</v>
       </c>
-      <c r="G30" s="45" t="n">
+      <c r="G30" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="H30" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="I30" s="46" t="s">
-        <v>150</v>
+      <c r="H30" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" s="70" t="s">
+        <v>193</v>
       </c>
       <c r="J30" s="0"/>
-      <c r="K30" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="L30" s="43" t="n">
+      <c r="K30" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="M30" s="45" t="n">
+      <c r="M30" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="N30" s="72" t="s">
-        <v>195</v>
-      </c>
-      <c r="O30" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="P30" s="59" t="n">
+      <c r="N30" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="O30" s="70" t="s">
+        <v>193</v>
+      </c>
+      <c r="P30" s="61" t="n">
         <f aca="false">VLOOKUP(N30,$K$15:$L$54,2)</f>
         <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="47" t="n">
+      <c r="A31" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="73" t="n">
         <v>42790.8849768519</v>
       </c>
-      <c r="D31" s="43" t="n">
+      <c r="D31" s="32" t="n">
         <v>17</v>
       </c>
-      <c r="E31" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="59" t="n">
+      <c r="E31" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="61" t="n">
         <v>36</v>
       </c>
-      <c r="G31" s="45" t="n">
+      <c r="G31" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="H31" s="67" t="s">
-        <v>180</v>
-      </c>
-      <c r="I31" s="46" t="s">
-        <v>130</v>
+      <c r="H31" s="69" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="70" t="s">
+        <v>176</v>
       </c>
       <c r="J31" s="0"/>
-      <c r="K31" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="L31" s="43" t="n">
+      <c r="K31" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" s="32" t="n">
         <v>34</v>
       </c>
-      <c r="M31" s="45" t="n">
+      <c r="M31" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="N31" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="O31" s="47" t="n">
+      <c r="N31" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="O31" s="73" t="n">
         <v>42790.8849768519</v>
       </c>
-      <c r="P31" s="59" t="n">
+      <c r="P31" s="61" t="n">
         <f aca="false">VLOOKUP(N31,$K$15:$L$54,2)</f>
         <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="47" t="n">
+      <c r="A32" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="73" t="n">
         <v>44049.6414699074</v>
       </c>
-      <c r="D32" s="43" t="n">
+      <c r="D32" s="32" t="n">
         <v>18</v>
       </c>
-      <c r="E32" s="71" t="s">
-        <v>226</v>
-      </c>
-      <c r="F32" s="59" t="n">
+      <c r="E32" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="61" t="n">
         <v>34</v>
       </c>
-      <c r="G32" s="45" t="n">
+      <c r="G32" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="H32" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="I32" s="46" t="s">
-        <v>136</v>
+      <c r="H32" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" s="70" t="s">
+        <v>181</v>
       </c>
       <c r="J32" s="0"/>
-      <c r="K32" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="L32" s="43" t="n">
+      <c r="K32" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" s="32" t="n">
         <v>31</v>
       </c>
-      <c r="M32" s="45" t="n">
+      <c r="M32" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="N32" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="O32" s="47" t="n">
+      <c r="N32" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="O32" s="73" t="n">
         <v>44049.6414699074</v>
       </c>
-      <c r="P32" s="59" t="n">
+      <c r="P32" s="61" t="n">
         <f aca="false">VLOOKUP(N32,$K$15:$L$54,2)</f>
         <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="47" t="n">
+      <c r="A33" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="73" t="n">
         <v>44145.5780902778</v>
       </c>
-      <c r="D33" s="43" t="n">
+      <c r="D33" s="32" t="n">
         <v>19</v>
       </c>
-      <c r="E33" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="F33" s="59" t="n">
+      <c r="E33" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" s="61" t="n">
         <v>35</v>
       </c>
-      <c r="G33" s="45" t="n">
+      <c r="G33" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="H33" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="I33" s="47" t="n">
+      <c r="H33" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" s="73" t="n">
         <v>44387.6392361111</v>
       </c>
       <c r="J33" s="0"/>
-      <c r="K33" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="L33" s="43" t="n">
+      <c r="K33" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="L33" s="32" t="n">
         <v>35</v>
       </c>
-      <c r="M33" s="45" t="n">
+      <c r="M33" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="N33" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="O33" s="47" t="n">
+      <c r="N33" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="O33" s="73" t="n">
         <v>44145.5780902778</v>
       </c>
-      <c r="P33" s="59" t="n">
+      <c r="P33" s="61" t="n">
         <f aca="false">VLOOKUP(N33,$K$15:$L$54,2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="B34" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="43" t="n">
+      <c r="D34" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="E34" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="F34" s="59" t="n">
+      <c r="E34" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="61" t="n">
         <v>15</v>
       </c>
-      <c r="G34" s="45" t="n">
+      <c r="G34" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="H34" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="I34" s="47" t="n">
+      <c r="H34" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="I34" s="73" t="n">
         <v>44088.6891435185</v>
       </c>
       <c r="J34" s="0"/>
-      <c r="K34" s="71" t="s">
-        <v>184</v>
-      </c>
-      <c r="L34" s="43" t="n">
+      <c r="K34" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="L34" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="M34" s="45" t="n">
+      <c r="M34" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="N34" s="72" t="s">
+      <c r="N34" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="O34" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="O34" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="P34" s="59" t="n">
+      <c r="P34" s="61" t="n">
         <f aca="false">VLOOKUP(N34,$K$15:$L$54,2)</f>
         <v>38</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" s="47" t="n">
+      <c r="A35" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="73" t="n">
         <v>42759.021724537</v>
       </c>
-      <c r="D35" s="43" t="n">
+      <c r="D35" s="32" t="n">
         <v>21</v>
       </c>
-      <c r="E35" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="F35" s="59" t="n">
+      <c r="E35" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="61" t="n">
         <v>6</v>
       </c>
-      <c r="G35" s="45" t="n">
+      <c r="G35" s="50" t="n">
         <v>3</v>
       </c>
-      <c r="H35" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="I35" s="46" t="s">
-        <v>141</v>
+      <c r="H35" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="I35" s="70" t="s">
+        <v>185</v>
       </c>
       <c r="J35" s="0"/>
-      <c r="K35" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="L35" s="43" t="n">
+      <c r="K35" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="L35" s="32" t="n">
         <v>6</v>
       </c>
-      <c r="M35" s="45" t="n">
+      <c r="M35" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="N35" s="73" t="s">
-        <v>199</v>
-      </c>
-      <c r="O35" s="47" t="n">
+      <c r="N35" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="O35" s="73" t="n">
         <v>42759.021724537</v>
       </c>
-      <c r="P35" s="59" t="n">
+      <c r="P35" s="61" t="n">
         <f aca="false">VLOOKUP(N35,$K$15:$L$54,2)</f>
         <v>29</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="B36" s="47" t="n">
+      <c r="A36" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="73" t="n">
         <v>43020.524537037</v>
       </c>
-      <c r="D36" s="43" t="n">
+      <c r="D36" s="32" t="n">
         <v>22</v>
       </c>
-      <c r="E36" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="F36" s="59" t="n">
+      <c r="E36" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="F36" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="G36" s="45" t="n">
+      <c r="G36" s="50" t="n">
         <v>4</v>
       </c>
-      <c r="H36" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="I36" s="46" t="s">
-        <v>146</v>
+      <c r="H36" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="I36" s="70" t="s">
+        <v>189</v>
       </c>
       <c r="J36" s="0"/>
-      <c r="K36" s="70" t="s">
-        <v>228</v>
-      </c>
-      <c r="L36" s="43" t="n">
+      <c r="K36" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="L36" s="32" t="n">
         <v>19</v>
       </c>
-      <c r="M36" s="45" t="n">
+      <c r="M36" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="N36" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="O36" s="47" t="n">
+      <c r="N36" s="72" t="s">
+        <v>196</v>
+      </c>
+      <c r="O36" s="73" t="n">
         <v>43020.524537037</v>
       </c>
-      <c r="P36" s="59" t="n">
+      <c r="P36" s="61" t="n">
         <f aca="false">VLOOKUP(N36,$K$15:$L$54,2)</f>
         <v>30</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="69" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" s="47" t="n">
+      <c r="A37" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="73" t="n">
         <v>43249.6226967593</v>
       </c>
-      <c r="D37" s="43" t="n">
+      <c r="D37" s="32" t="n">
         <v>23</v>
       </c>
-      <c r="E37" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="59" t="n">
+      <c r="E37" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="61" t="n">
         <v>12</v>
       </c>
-      <c r="G37" s="45" t="n">
+      <c r="G37" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="H37" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="I37" s="47" t="n">
+      <c r="H37" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="I37" s="73" t="n">
         <v>42790.8849768519</v>
       </c>
       <c r="J37" s="0"/>
-      <c r="K37" s="71" t="s">
-        <v>216</v>
-      </c>
-      <c r="L37" s="43" t="n">
+      <c r="K37" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="L37" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="M37" s="45" t="n">
+      <c r="M37" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="N37" s="69" t="s">
-        <v>201</v>
-      </c>
-      <c r="O37" s="47" t="n">
+      <c r="N37" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="O37" s="73" t="n">
         <v>43249.6226967593</v>
       </c>
-      <c r="P37" s="59" t="n">
+      <c r="P37" s="61" t="n">
         <f aca="false">VLOOKUP(N37,$K$15:$L$54,2)</f>
         <v>22</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="B38" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="43" t="n">
+      <c r="D38" s="32" t="n">
         <v>24</v>
       </c>
-      <c r="E38" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38" s="59" t="n">
+      <c r="E38" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="61" t="n">
         <v>12</v>
       </c>
-      <c r="G38" s="45" t="n">
+      <c r="G38" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="H38" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="I38" s="47" t="n">
+      <c r="H38" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" s="73" t="n">
         <v>42943.2255671296</v>
       </c>
       <c r="J38" s="0"/>
-      <c r="K38" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="L38" s="43" t="n">
+      <c r="K38" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="L38" s="32" t="n">
         <v>12</v>
       </c>
-      <c r="M38" s="45" t="n">
+      <c r="M38" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="N38" s="72" t="s">
+      <c r="N38" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="O38" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="O38" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="P38" s="59" t="n">
+      <c r="P38" s="61" t="n">
         <f aca="false">VLOOKUP(N38,$K$15:$L$54,2)</f>
         <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="B39" s="47" t="n">
+      <c r="A39" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="B39" s="73" t="n">
         <v>44039.5367824074</v>
       </c>
-      <c r="D39" s="43" t="n">
+      <c r="D39" s="32" t="n">
         <v>25</v>
       </c>
-      <c r="E39" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="F39" s="59" t="n">
+      <c r="E39" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="61" t="n">
         <v>9</v>
       </c>
-      <c r="G39" s="45" t="n">
+      <c r="G39" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="H39" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="I39" s="47" t="n">
+      <c r="H39" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="I39" s="73" t="n">
         <v>43922.15</v>
       </c>
       <c r="J39" s="0"/>
-      <c r="K39" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="L39" s="43" t="n">
+      <c r="K39" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="L39" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="M39" s="45" t="n">
+      <c r="M39" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="N39" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="O39" s="47" t="n">
+      <c r="N39" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="O39" s="73" t="n">
         <v>44039.5367824074</v>
       </c>
-      <c r="P39" s="59" t="n">
+      <c r="P39" s="61" t="n">
         <f aca="false">VLOOKUP(N39,$K$15:$L$54,2)</f>
         <v>4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="B40" s="47" t="n">
+      <c r="A40" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="73" t="n">
         <v>43116.778275463</v>
       </c>
-      <c r="D40" s="43" t="n">
+      <c r="D40" s="32" t="n">
         <v>26</v>
       </c>
-      <c r="E40" s="71" t="s">
-        <v>191</v>
-      </c>
-      <c r="F40" s="59" t="n">
+      <c r="E40" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="61" t="n">
         <v>1</v>
       </c>
-      <c r="G40" s="45" t="n">
+      <c r="G40" s="50" t="n">
         <v>5</v>
       </c>
-      <c r="H40" s="69" t="s">
-        <v>197</v>
-      </c>
-      <c r="I40" s="47" t="n">
+      <c r="H40" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="I40" s="73" t="n">
         <v>44145.5780902778</v>
       </c>
       <c r="J40" s="0"/>
-      <c r="K40" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="L40" s="43" t="n">
+      <c r="K40" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="L40" s="32" t="n">
         <v>28</v>
       </c>
-      <c r="M40" s="45" t="n">
+      <c r="M40" s="50" t="n">
         <v>7</v>
       </c>
-      <c r="N40" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="O40" s="47" t="n">
+      <c r="N40" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="O40" s="73" t="n">
         <v>43116.778275463</v>
       </c>
-      <c r="P40" s="59" t="n">
+      <c r="P40" s="61" t="n">
         <f aca="false">VLOOKUP(N40,$K$15:$L$54,2)</f>
         <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="B41" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="D41" s="43" t="n">
+      <c r="A41" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="32" t="n">
         <v>27</v>
       </c>
-      <c r="E41" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" s="59" t="n">
+      <c r="E41" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="F41" s="61" t="n">
         <v>8</v>
       </c>
-      <c r="G41" s="45" t="n">
+      <c r="G41" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="H41" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="I41" s="47" t="n">
+      <c r="H41" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" s="73" t="n">
         <v>44269.2600231482</v>
       </c>
       <c r="J41" s="0"/>
-      <c r="K41" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="L41" s="43" t="n">
+      <c r="K41" s="71" t="s">
+        <v>192</v>
+      </c>
+      <c r="L41" s="32" t="n">
         <v>1</v>
       </c>
-      <c r="M41" s="45" t="n">
+      <c r="M41" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="N41" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="O41" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="P41" s="59" t="n">
+      <c r="N41" s="76" t="s">
+        <v>203</v>
+      </c>
+      <c r="O41" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="P41" s="61" t="n">
         <f aca="false">VLOOKUP(N41,$K$15:$L$54,2)</f>
         <v>39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" s="47" t="n">
+      <c r="A42" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="73" t="n">
         <v>44122.5681134259</v>
       </c>
-      <c r="D42" s="43" t="n">
+      <c r="D42" s="32" t="n">
         <v>28</v>
       </c>
-      <c r="E42" s="70" t="s">
-        <v>229</v>
-      </c>
-      <c r="F42" s="59" t="n">
+      <c r="E42" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="F42" s="61" t="n">
         <v>16</v>
       </c>
-      <c r="G42" s="45" t="n">
+      <c r="G42" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="H42" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="I42" s="46" t="s">
-        <v>169</v>
+      <c r="H42" s="76" t="s">
+        <v>208</v>
+      </c>
+      <c r="I42" s="70" t="s">
+        <v>212</v>
       </c>
       <c r="J42" s="0"/>
-      <c r="K42" s="71" t="s">
-        <v>211</v>
-      </c>
-      <c r="L42" s="43" t="n">
+      <c r="K42" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="L42" s="32" t="n">
         <v>8</v>
       </c>
-      <c r="M42" s="45" t="n">
+      <c r="M42" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="N42" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="O42" s="47" t="n">
+      <c r="N42" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="O42" s="73" t="n">
         <v>44122.5681134259</v>
       </c>
-      <c r="P42" s="59" t="n">
+      <c r="P42" s="61" t="n">
         <f aca="false">VLOOKUP(N42,$K$15:$L$54,2)</f>
         <v>40</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="B43" s="47" t="n">
+      <c r="A43" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="73" t="n">
         <v>43610.3430902778</v>
       </c>
-      <c r="D43" s="43" t="n">
+      <c r="D43" s="32" t="n">
         <v>29</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="E43" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="61" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" s="50" t="n">
+        <v>7</v>
+      </c>
+      <c r="H43" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="F43" s="59" t="n">
-        <v>5</v>
-      </c>
-      <c r="G43" s="45" t="n">
-        <v>7</v>
-      </c>
-      <c r="H43" s="72" t="s">
+      <c r="I43" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="I43" s="46" t="s">
-        <v>160</v>
-      </c>
       <c r="J43" s="0"/>
-      <c r="K43" s="71" t="s">
-        <v>224</v>
-      </c>
-      <c r="L43" s="43" t="n">
+      <c r="K43" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="L43" s="32" t="n">
         <v>16</v>
       </c>
-      <c r="M43" s="45" t="n">
+      <c r="M43" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="N43" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="O43" s="47" t="n">
+      <c r="N43" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="O43" s="73" t="n">
         <v>43610.3430902778</v>
       </c>
-      <c r="P43" s="59" t="n">
+      <c r="P43" s="61" t="n">
         <f aca="false">VLOOKUP(N43,$K$15:$L$54,2)</f>
         <v>32</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" s="73" t="n">
+        <v>44423.9007986111</v>
+      </c>
+      <c r="D44" s="32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E44" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="F44" s="61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" s="50" t="n">
+        <v>7</v>
+      </c>
+      <c r="H44" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" s="73" t="n">
+        <v>44039.5367824074</v>
+      </c>
+      <c r="J44" s="0"/>
+      <c r="K44" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="L44" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M44" s="50" t="n">
+        <v>8</v>
+      </c>
+      <c r="N44" s="72" t="s">
+        <v>206</v>
+      </c>
+      <c r="O44" s="73" t="n">
+        <v>44423.9007986111</v>
+      </c>
+      <c r="P44" s="61" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="B44" s="47" t="n">
-        <v>44423.9007986111</v>
-      </c>
-      <c r="D44" s="43" t="n">
-        <v>30</v>
-      </c>
-      <c r="E44" s="71" t="s">
+      <c r="B45" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E45" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" s="61" t="n">
+        <v>22</v>
+      </c>
+      <c r="G45" s="50" t="n">
+        <v>6</v>
+      </c>
+      <c r="H45" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="I45" s="73" t="n">
+        <v>43249.6226967593</v>
+      </c>
+      <c r="J45" s="0"/>
+      <c r="K45" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="F44" s="59" t="n">
+      <c r="L45" s="32" t="n">
         <v>4</v>
       </c>
-      <c r="G44" s="45" t="n">
-        <v>7</v>
-      </c>
-      <c r="H44" s="73" t="s">
-        <v>203</v>
-      </c>
-      <c r="I44" s="47" t="n">
-        <v>44039.5367824074</v>
-      </c>
-      <c r="J44" s="0"/>
-      <c r="K44" s="71" t="s">
-        <v>217</v>
-      </c>
-      <c r="L44" s="43" t="n">
-        <v>5</v>
-      </c>
-      <c r="M44" s="45" t="n">
-        <v>8</v>
-      </c>
-      <c r="N44" s="69" t="s">
+      <c r="M45" s="50" t="n">
+        <v>9</v>
+      </c>
+      <c r="N45" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="O44" s="47" t="n">
-        <v>44423.9007986111</v>
-      </c>
-      <c r="P44" s="59" t="n">
-        <f aca="false">VLOOKUP(N44,$K$15:$L$54,2)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="B45" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="43" t="n">
-        <v>31</v>
-      </c>
-      <c r="E45" s="71" t="s">
-        <v>227</v>
-      </c>
-      <c r="F45" s="59" t="n">
-        <v>22</v>
-      </c>
-      <c r="G45" s="45" t="n">
-        <v>6</v>
-      </c>
-      <c r="H45" s="69" t="s">
-        <v>201</v>
-      </c>
-      <c r="I45" s="47" t="n">
-        <v>43249.6226967593</v>
-      </c>
-      <c r="J45" s="0"/>
-      <c r="K45" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="L45" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="M45" s="45" t="n">
-        <v>9</v>
-      </c>
-      <c r="N45" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="O45" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="P45" s="59" t="n">
+      <c r="O45" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="P45" s="61" t="n">
         <f aca="false">VLOOKUP(N45,$K$15:$L$54,2)</f>
         <v>16</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="B46" s="47" t="n">
+      <c r="A46" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="73" t="n">
         <v>43441.9506018519</v>
       </c>
-      <c r="D46" s="43" t="n">
+      <c r="D46" s="32" t="n">
         <v>32</v>
       </c>
-      <c r="E46" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="F46" s="59" t="n">
+      <c r="E46" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="61" t="n">
         <v>25</v>
       </c>
-      <c r="G46" s="45" t="n">
+      <c r="G46" s="50" t="n">
         <v>1</v>
       </c>
-      <c r="H46" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="I46" s="47" t="n">
+      <c r="H46" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="I46" s="73" t="n">
         <v>43953.2295717593</v>
       </c>
       <c r="J46" s="0"/>
-      <c r="K46" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="L46" s="43" t="n">
+      <c r="K46" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="L46" s="32" t="n">
         <v>22</v>
       </c>
-      <c r="M46" s="45" t="n">
+      <c r="M46" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="N46" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="O46" s="47" t="n">
+      <c r="N46" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="O46" s="73" t="n">
         <v>43441.9506018519</v>
       </c>
-      <c r="P46" s="59" t="n">
+      <c r="P46" s="61" t="n">
         <f aca="false">VLOOKUP(N46,$K$15:$L$54,2)</f>
         <v>17</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B47" s="47" t="n">
+      <c r="A47" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="73" t="n">
         <v>44269.2600231482</v>
       </c>
-      <c r="D47" s="43" t="n">
+      <c r="D47" s="32" t="n">
         <v>33</v>
       </c>
-      <c r="E47" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="F47" s="59" t="n">
+      <c r="E47" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" s="61" t="n">
         <v>21</v>
       </c>
-      <c r="G47" s="45" t="n">
+      <c r="G47" s="50" t="n">
         <v>2</v>
       </c>
-      <c r="H47" s="69" t="s">
-        <v>187</v>
-      </c>
-      <c r="I47" s="47" t="n">
+      <c r="H47" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="I47" s="73" t="n">
         <v>44113.5193055556</v>
       </c>
       <c r="J47" s="0"/>
-      <c r="K47" s="71" t="s">
-        <v>181</v>
-      </c>
-      <c r="L47" s="43" t="n">
+      <c r="K47" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="L47" s="32" t="n">
         <v>25</v>
       </c>
-      <c r="M47" s="45" t="n">
+      <c r="M47" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="N47" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="O47" s="47" t="n">
+      <c r="N47" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="O47" s="73" t="n">
         <v>44269.2600231482</v>
       </c>
-      <c r="P47" s="59" t="n">
+      <c r="P47" s="61" t="n">
         <f aca="false">VLOOKUP(N47,$K$15:$L$54,2)</f>
         <v>8</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="B48" s="47" t="n">
+      <c r="A48" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="73" t="n">
         <v>43922.15</v>
       </c>
-      <c r="D48" s="43" t="n">
+      <c r="D48" s="32" t="n">
         <v>34</v>
       </c>
-      <c r="E48" s="71" t="s">
-        <v>225</v>
-      </c>
-      <c r="F48" s="59" t="n">
+      <c r="E48" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="F48" s="61" t="n">
         <v>21</v>
       </c>
-      <c r="G48" s="45" t="n">
+      <c r="G48" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="H48" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="I48" s="47" t="n">
+      <c r="H48" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" s="73" t="n">
         <v>43073.2317476852</v>
       </c>
       <c r="J48" s="0"/>
-      <c r="K48" s="71" t="s">
-        <v>187</v>
-      </c>
-      <c r="L48" s="43" t="n">
+      <c r="K48" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="L48" s="32" t="n">
         <v>21</v>
       </c>
-      <c r="M48" s="45" t="n">
+      <c r="M48" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="N48" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="O48" s="47" t="n">
+      <c r="N48" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="O48" s="73" t="n">
         <v>43922.15</v>
       </c>
-      <c r="P48" s="59" t="n">
+      <c r="P48" s="61" t="n">
         <f aca="false">VLOOKUP(N48,$K$15:$L$54,2)</f>
         <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="B49" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="D49" s="43" t="n">
+      <c r="B49" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="32" t="n">
         <v>35</v>
       </c>
-      <c r="E49" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="F49" s="59" t="n">
+      <c r="E49" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="61" t="n">
         <v>17</v>
       </c>
-      <c r="G49" s="45" t="n">
+      <c r="G49" s="50" t="n">
         <v>9</v>
       </c>
-      <c r="H49" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="I49" s="47" t="n">
+      <c r="H49" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49" s="73" t="n">
         <v>43441.9506018519</v>
       </c>
       <c r="J49" s="0"/>
-      <c r="K49" s="71" t="s">
-        <v>226</v>
-      </c>
-      <c r="L49" s="43" t="n">
+      <c r="K49" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="L49" s="32" t="n">
         <v>18</v>
       </c>
-      <c r="M49" s="45" t="n">
+      <c r="M49" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="N49" s="72" t="s">
+      <c r="N49" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="O49" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="P49" s="59" t="n">
+      <c r="O49" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="P49" s="61" t="n">
         <f aca="false">VLOOKUP(N49,$K$15:$L$54,2)</f>
         <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="B50" s="47" t="n">
+      <c r="A50" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="73" t="n">
         <v>43073.2317476852</v>
       </c>
-      <c r="D50" s="43" t="n">
+      <c r="D50" s="32" t="n">
         <v>36</v>
       </c>
-      <c r="E50" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="F50" s="59" t="n">
+      <c r="E50" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="F50" s="61" t="n">
         <v>38</v>
       </c>
-      <c r="G50" s="45" t="n">
+      <c r="G50" s="50" t="n">
         <v>6</v>
       </c>
-      <c r="H50" s="72" t="s">
+      <c r="H50" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="I50" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="I50" s="46" t="s">
-        <v>155</v>
-      </c>
       <c r="J50" s="0"/>
-      <c r="K50" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="L50" s="43" t="n">
+      <c r="K50" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="L50" s="32" t="n">
         <v>17</v>
       </c>
-      <c r="M50" s="45" t="n">
+      <c r="M50" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="N50" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="O50" s="47" t="n">
+      <c r="N50" s="77" t="s">
+        <v>179</v>
+      </c>
+      <c r="O50" s="73" t="n">
         <v>43073.2317476852</v>
       </c>
-      <c r="P50" s="59" t="n">
+      <c r="P50" s="61" t="n">
         <f aca="false">VLOOKUP(N50,$K$15:$L$54,2)</f>
         <v>21</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="B51" s="47" t="n">
+      <c r="A51" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="73" t="n">
         <v>42943.2255671296</v>
       </c>
-      <c r="D51" s="43" t="n">
+      <c r="D51" s="32" t="n">
         <v>37</v>
       </c>
-      <c r="E51" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="F51" s="59" t="n">
+      <c r="E51" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="F51" s="61" t="n">
         <v>40</v>
       </c>
-      <c r="G51" s="45" t="n">
+      <c r="G51" s="50" t="n">
         <v>8</v>
       </c>
-      <c r="H51" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="I51" s="47" t="n">
+      <c r="H51" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="I51" s="73" t="n">
         <v>44122.5681134259</v>
       </c>
       <c r="J51" s="0"/>
-      <c r="K51" s="70" t="s">
-        <v>231</v>
-      </c>
-      <c r="L51" s="43" t="n">
+      <c r="K51" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="L51" s="32" t="n">
         <v>38</v>
       </c>
-      <c r="M51" s="45" t="n">
+      <c r="M51" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="N51" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="O51" s="47" t="n">
+      <c r="N51" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="O51" s="73" t="n">
         <v>42943.2255671296</v>
       </c>
-      <c r="P51" s="59" t="n">
+      <c r="P51" s="61" t="n">
         <f aca="false">VLOOKUP(N51,$K$15:$L$54,2)</f>
         <v>12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="B52" s="47" t="n">
+      <c r="B52" s="73" t="n">
         <v>43094.0444097222</v>
       </c>
-      <c r="D52" s="43" t="n">
+      <c r="D52" s="32" t="n">
         <v>38</v>
       </c>
-      <c r="E52" s="70" t="s">
+      <c r="E52" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="F52" s="61" t="n">
+        <v>23</v>
+      </c>
+      <c r="G52" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="I52" s="73" t="n">
+        <v>43896.4739930556</v>
+      </c>
+      <c r="K52" s="74" t="s">
         <v>231</v>
       </c>
-      <c r="F52" s="59" t="n">
-        <v>23</v>
-      </c>
-      <c r="G52" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="I52" s="47" t="n">
-        <v>43896.4739930556</v>
-      </c>
-      <c r="K52" s="70" t="s">
-        <v>230</v>
-      </c>
-      <c r="L52" s="43" t="n">
+      <c r="L52" s="32" t="n">
         <v>37</v>
       </c>
-      <c r="M52" s="45" t="n">
+      <c r="M52" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="N52" s="69" t="s">
+      <c r="N52" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="O52" s="47" t="n">
+      <c r="O52" s="73" t="n">
         <v>43094.0444097222</v>
       </c>
-      <c r="P52" s="59" t="n">
+      <c r="P52" s="61" t="n">
         <f aca="false">VLOOKUP(N52,$K$15:$L$54,2)</f>
         <v>13</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="43" t="n">
+      <c r="D53" s="32" t="n">
         <v>39</v>
       </c>
-      <c r="E53" s="70" t="s">
-        <v>188</v>
+      <c r="E53" s="74" t="s">
+        <v>180</v>
       </c>
       <c r="G53" s="0"/>
       <c r="H53" s="0"/>
-      <c r="K53" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="L53" s="43" t="n">
+      <c r="K53" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="L53" s="32" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="43" t="n">
+      <c r="D54" s="32" t="n">
         <v>40</v>
       </c>
-      <c r="E54" s="70" t="s">
-        <v>206</v>
-      </c>
-      <c r="K54" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="L54" s="43" t="n">
+      <c r="E54" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="K54" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="L54" s="32" t="n">
         <v>23</v>
       </c>
     </row>
@@ -19316,314 +19337,314 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="79" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52" t="n">
+      <c r="A3" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="52" t="n">
+      <c r="B3" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F3" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="45" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="n">
+      <c r="A4" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="52" t="n">
+      <c r="B4" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="57" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="41"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52" t="n">
+      <c r="A5" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="n">
+      <c r="B5" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="57" t="s">
         <v>87</v>
       </c>
       <c r="F5" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="45" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="n">
+      <c r="A6" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="52" t="n">
+      <c r="B6" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F6" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="45" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52" t="n">
+      <c r="A7" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="52" t="n">
+      <c r="B7" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="57" t="s">
         <v>87</v>
       </c>
       <c r="F7" s="22" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52" t="n">
+      <c r="A8" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="52" t="n">
+      <c r="B8" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="57" t="s">
         <v>82</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="41"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52" t="n">
+      <c r="A9" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="52" t="n">
+      <c r="B9" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="57" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="44" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="n">
+      <c r="A10" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="52" t="n">
+      <c r="B10" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="57" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52" t="n">
+      <c r="A11" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="52" t="n">
+      <c r="B11" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="58" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="22"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52" t="n">
+      <c r="A12" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="B12" s="52" t="n">
+      <c r="B12" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="58" t="s">
         <v>113</v>
       </c>
       <c r="F12" s="22" t="n">
         <v>6</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="44" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="n">
+      <c r="A13" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="52" t="n">
+      <c r="B13" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="59" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="n">
+      <c r="A14" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="52" t="n">
+      <c r="B14" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="59" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="n">
+      <c r="A15" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="52" t="n">
+      <c r="B15" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="59" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="n">
+      <c r="A16" s="56" t="n">
         <v>7</v>
       </c>
-      <c r="B16" s="52" t="n">
+      <c r="B16" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52" t="n">
+      <c r="A17" s="56" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="52" t="n">
+      <c r="B17" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="59" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52" t="n">
+      <c r="A18" s="56" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="52" t="n">
+      <c r="B18" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="59" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="52" t="n">
+      <c r="A19" s="56" t="n">
         <v>8</v>
       </c>
-      <c r="B19" s="52" t="n">
+      <c r="B19" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="59" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52" t="n">
+      <c r="A20" s="56" t="n">
         <v>9</v>
       </c>
-      <c r="B20" s="52" t="n">
+      <c r="B20" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="59" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52" t="n">
+      <c r="A21" s="56" t="n">
         <v>9</v>
       </c>
-      <c r="B21" s="52" t="n">
+      <c r="B21" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="59" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52" t="n">
+      <c r="A22" s="56" t="n">
         <v>9</v>
       </c>
-      <c r="B22" s="52" t="n">
+      <c r="B22" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="59" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="52" t="n">
+      <c r="A23" s="56" t="n">
         <v>10</v>
       </c>
-      <c r="B23" s="52" t="n">
+      <c r="B23" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="59" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="52" t="n">
+      <c r="A24" s="56" t="n">
         <v>10</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="60" t="s">
         <v>113</v>
       </c>
     </row>
@@ -19648,18 +19669,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="103.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="103.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="75" t="s">
-        <v>232</v>
+      <c r="A1" s="80" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
